--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_163.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_163.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33182-d82347-Reviews-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>241</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Torrance-South-Bay.h3338.Hotel-Information?chkin=6%2F18%2F2018&amp;chkout=6%2F19%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528252911841&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=4d0330e1-aa90-48b8-8a63-777971d66779&amp;mctc=9&amp;exp_dp=169&amp;exp_ts=1528252912421&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_163.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_163.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1062">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Judy W</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I have a free Marriott one night (category 1-5) certificate that was expiring soon, so I booked one night stay at this Courtyard in order for me to go to a LA Dodgers game next day.Checked in around 9PM, the process was easy. Since I’m a Platinum member, I was offered either free coffee or an item from the Market. Courtyard will give you a coupon to redeem it.The room is facing the courtyard, so I didn’t hear the freeway traffic as I went to sleep. I really like the Paul Mitchell shampoo/conditioner/body wash amenities, and I’m glad they are using the big bottles to be more environmentally friendly.There was some kind of renovation going on next room, but the hotel didn’t notify me. I was startled with the noises at first and was ok afterward. I’d hope the hotel has informed other guests so they would be prepped for the noises. I think this is an okay place to stay for a short term. More</t>
   </si>
   <si>
+    <t>BizOwner007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r573736730-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>MrHCooksForYou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r571003595-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>Helpful friendly staff.  I travel this way for business regularly and my first time staying here.  All key elements met - clean with helpful service at a competitive price (and no fee for parking. I will be back.</t>
   </si>
   <si>
+    <t>hoosier63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r562521447-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -235,6 +247,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>krisy00725</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r562035477-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
@@ -272,6 +287,9 @@
 The room was clean, just the right amount of space. It had a...I was actually very pleasantly surprised by this hotel. The cleanliness, the modern decor, the spaciousness and I was super surprised they had starbucks in the loby......unfortunately ended up being a tease. I went downstairs the first morning with happy anticipation for my Starbucks coffee.  I was hugely disappointed they didn't open until 7am.  Only black coffee available.  How are they accommodating business guests that need to leave before 7 am?Again, tried to get a beverage after laying at the pool for a while,  they were closed again. At 2pm. What?!! Finding out their operating hours are 7am-2pm. They reopen in the evening. I was not able to even enjoy anything from them with those hours.  Thankfully they have a Starbucks a very short distance down the road and the employees there were fantastic, friendly and accommodating. The loby area is very large and open. It starts with the cafe seating: booths along the wall and tables with chairs in the center as well as  counter height seating at an island with outlets (bonus). They have a small business area with desk space, a printer and charging station next to the check in area also.  There are two other different seating areas in the lobby,  both with tv's and oversized, spacious seating. One has reclining modern lounge style chairs,  the other a sectional couch and chairs. The room was clean, just the right amount of space. It had a huge, oversized, large circular chair/lounger that could seat two in the corner, a wardrobe and 3 drawer dresser, and desk space. The area before the bathroom had the sink on the right and another great counter space adjacent with the fridge, no microwave,  small coffee maker, ice bucket and cups. This space was very much appreciated as I don't travel light and it was great for all my toiletries. The bathroom was spacious and clean. There was a single towel bar over the toilet. The shower could have used a small corner to put things on or a seat, but that's all that was lacking. I would suggest staying on a higher floor,  the walls were a little thin, not noisy, but while I was trying to sleep, I could hear the murmur of the neighbors tv.There was a very small balcony with two chairs with a view of the pool. It is nice to be able to have the option to enjoy sitting outside.I would definitely recommend them again.  It was a great stay, sans the Starbucks being a waste with their terrible hours.More</t>
   </si>
   <si>
+    <t>HappyWanderers13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r561109055-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -293,6 +311,9 @@
     <t>We got a great rate directly from the hotel, which included a lovely breakfast in the guest lounge off the lobby. Breakfast, small meals, snacks and Starbucks coffee, etc, can also be purchased there.The decor there and in our room was attractive and comfortable. We requested a quiet room, and this is what we got, looking out over the pool. No noise, despite being right beside the freeway. Having a guest laundry was great, and there was lots of parking. There is a small "convenience store" beside reception that has most things a traveller may need. We booked in for a second night, but at check out we had a misunderstanding about the rate. No problem; the desk clerk matched the rate of our first night. Great customer service!More</t>
   </si>
   <si>
+    <t>FatAlbert34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r551304265-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -311,6 +332,9 @@
     <t>I have to say I have stayed in many hotels during my trips but this one stood out so farCheck in-out - was excellent quick and courtious.Location - right off the highway I was located on a pool facing room , couldn't hear anything. Nice and quiet.Room - very big room spacious. And a big comfortable bed.Shower- was ok decent water pressure.AC - allot of the hotel in LA have this type of AC and its a shame as they are a bit noisy.Food - I had a light dinner , nothing to write home about..Gym- nice small gym clean and decent.Pool- was there , did not use it .Parking - plenty of parking Good experience overallMore</t>
   </si>
   <si>
+    <t>Joi I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r526749886-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -329,6 +353,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>marymcd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r511905560-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -347,6 +374,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>CaliCoves</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r496381924-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -365,6 +395,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>StellaAiello</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r489377225-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -395,6 +428,9 @@
     <t>If you are looking for a hotel where you can let your young children and teenagers run through the halls unsupervised, be at the pool in large groups unsupervised, and make other guests unable to have a moment of quiet, then this is your place.    Room carpet and furniture was stained and dirty.  I called hotel staff several times who didn't seem to care that children were extremely loud at pool and hot tub at 7 am.    This was my first and last stay here - it was like staying at a Chuck E Cheese:  loud kids everywhere.More</t>
   </si>
   <si>
+    <t>superbsandeep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r486695689-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -419,6 +455,9 @@
     <t>I stayed at this Hotel with my family and thoroughly enjoyed the stay.The Hotel Manager a smiling gentleman had a surprise for us when he offered us Indian breakfast with cardamom tea on our both days of our stay.After travelling in US for a week if you get to savor hot freshly made Poha during the breakfast it makes your day.The Rooms were colorful and had a appealing decor. Water with herbs was placed in the lobby of the hotel which was quite refreshing while coming back to hotel after a tiring day.The Gym and the whirlpool were good too.More</t>
   </si>
   <si>
+    <t>Raul G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r485184718-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -446,6 +485,9 @@
     <t>Like many Courtyard Hotels, this one is business focused and the lobby has undergone the update most Courtyards are receiving.  However, the rooms and halls are still dated and this hotel is charging a premium.  The stay was pleasant and what could be expected from a short stay business hotel.  The lobby restaurant is slow for breakfast so only undertake breakfast there if you have sufficient time. The elevators are old, noisy and need to be updated or maintained.  The location of this hotel means it’s always in demand and will never have a shortage of guests but they should reinvest into the hotel a bit besides the lobby.More</t>
   </si>
   <si>
+    <t>Alvaro C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r484940984-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -467,6 +509,9 @@
     <t>The hotel is close to the airport (25 minutes) and it is strategical located near to the automotive corporate offices. Personeel commited to bring good service to the guests. However the rooms are not clean as desired or at least according to the fare. The carpet of my room was dirty and my general perception of the hotel is that it can improve its physical condition.More</t>
   </si>
   <si>
+    <t>Jobgirl2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r480065101-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -494,6 +539,9 @@
     <t>I have stayed here before, and now twice in one week.  When we arrived they had somehow messed up our reservation.  We needed two beds.  Eventually they were able to fix the error and get us a room overlooking the pool.  Rooms are clean, beds are comfortable and staff is friendly.  Close to freeway. My last visit we had a room overlooking the freeway off-ramp and the parking lot.  It was noisy early on, with angry commuters.  Eventually quieted down with the exception of the random honking of alarms.  Nosy guests at times.  No fault of the hotel, just people not being courteous.More</t>
   </si>
   <si>
+    <t>zambarossa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r431939708-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -521,6 +569,9 @@
     <t>I stayed a night at this establishment. The location is not far from LAX, conveniently located right off the 405 exit and seemed to be safe. The hotel is nice and the rooms have balconies with a nice pool view. The pool is heated, so you can comfortably swim even with air temp in the 60s. A hot tub is also conveniently located in an indoor room next to the pool.The room was clean and spacious and the price was good. The staff was very friendly and helpful.There are only a couple of disadvantages: - There was no in-room safe. Not a huge deal for a 1 night stay, but a disadvantage if staying longer. - The gym is too small and has barely any equipment (2 treadmills and a stepper, no bike). - Pool light was broken so it was a bit dark while swimming at night.All in all, I'd give it 3.5, but since tripadvisor has only whole number ratings, 4 is more fair since 3 would have been too low in my opinion.More</t>
   </si>
   <si>
+    <t>Penny M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r430023736-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -545,6 +596,9 @@
     <t>check in was fine. the room was very  clean accept for hairs we kept finding on the towels, and bed (yuck). our room faced the 405 which had traffic 24/7 and I like to open the window so that was a no go..... the workout room had 2 treadmills, an elliptical and an adjustable bench with free wts. the cardio was from life fitness, so that was good. I worked out in the morning. they had the temp in the room turned down to 68 deg, which seemed cold when walking in,  but warm after building a sweat. fans would have been nice and I couldn't figure out how to hear the TV thru my headphones, which was OK since I was alone, but would have been a problem if there were 3 TV's on at the same time......the Starbucks coffee I bought on Sat. morning was cold....really?  if you want restaurants within walking distance, this probably isn't where you want to go. it was located in  a  little business park. it was nice, but I would stay in a different location if I go back to visit that area again.....More</t>
   </si>
   <si>
+    <t>Gary C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r422669267-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -572,6 +626,9 @@
     <t>Clean rooms, nice hotel.  Always a first choice when we are in the area. Right off the freeway with plenty of restaurants and shopping nearby.  We always feel very safe staying here.  The overall hotel and lobby are nice.  We've stayed here a number of times and have yet to be disappointed.  The only thing is that there is no complimentary breakfast, although there is a cafe in house.  More</t>
   </si>
   <si>
+    <t>nznorm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r405853106-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -599,6 +656,9 @@
     <t>Stayed here before a flight out of LAX. It's cheaper that the Marriott properties closest to the airport yet not too far away.  This property is in a business park, so there is nothing much in walking distance. It is a clean property and the staff is very friendly and helpful.  I would not recommend this place for a vacation, but for a night or two, it is a fine place to stay.More</t>
   </si>
   <si>
+    <t>Lasha G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r404326105-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -623,6 +683,9 @@
     <t>If you're used to Marriott quality, you will not find it here. Staff is attentive, but the building needs major renovation. Priced high just because of the brand. I was upgraded to suit so I don't even know what happens in lower tier rooms. Location is not great but doesn't matter if you drive. In the middle of LAX and LGB, which is convenient More</t>
   </si>
   <si>
+    <t>Lori F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r398592938-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -641,6 +704,9 @@
     <t>We stayed at this Courtyard for 3 nights. All of the staff was helpful. The only negative thought I had was when we first walked in was that the carpet looked like it could use cleaning. The very next day the carpets were being cleaned. The staff in The Bistro dining area was especially great. Highly recommend this Marriott.More</t>
   </si>
   <si>
+    <t>Wander173</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r389218870-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -665,6 +731,9 @@
     <t>Just got back after a quick trip to LA. The staff here is really amazing, very friendly and willing to help. The room was good sized and above all, from the sheets and towels to the inside of the minibar, everything was impeccably clean. Kudos to the maintenance staff. :)More</t>
   </si>
   <si>
+    <t>Adventuredude718</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r375659537-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -689,6 +758,9 @@
     <t>Very convenient to 405 Freeway. Rooms are standard Courtyard, however they do have balconies which I like. They have the bistro bar with a variety of items including breakfast (for a fee).There are restaurants in the neighborhood that you would have to drive to.  The staff was VERY pleasant to deal with. I really liked the courtyard with the pool and jacuzzi it had a intimate setting. I will definitely consider this hotel when I am in the area again. More</t>
   </si>
   <si>
+    <t>swalkerd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r375512060-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -707,6 +779,9 @@
     <t>We had to switch Marriotts....long story...but when we arrived here, the staff was so very friendly and helped us with everything we needed. Very clean and updated hotel. Near the freeway. I travel for work every week and I would choose this hotel again if near any of my jobs.More</t>
   </si>
   <si>
+    <t>kellybee7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r369413656-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -734,6 +809,9 @@
     <t>We're a family of 4 wanting to see a grunion run in San Pedro. The Crowne Plaza &amp; Doubletree there were too expensive; I didn't like the cheaper options nearby, so I ended up choosing this Courtyard. We drove from SFV, checked in to the hotel late afternoon. Check in process was very efficient and friendly. I was given a goodie bag with 2 water bottles and cookies, I suppose for being a Marriott member. Hotel grounds, hallways, room all great condition. Our room faced the pool, an added plus. Lots of dining options nearby. We ate at the Local Place (hawaiian cuisine) then went to Cabrillo Beach but no grunion turned up as there were too many people--too noisy &amp; kids were pointing flashlights on the water :(  The saving grace for this weekend jaunt turned out to be our comfortable hotel stay. Our beds were comfortable, bathroom was basic but ok. We ate a leisurely breakfast at The Bistro prior to checking out. If I'm back in this area, I won't mind staying there again.More</t>
   </si>
   <si>
+    <t>Dark_Choc-a-holic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r357470890-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -761,6 +839,9 @@
     <t>Rooms were clean, staff friendly, price reasonable, safe environment and easy access. I did not like the layout of the room or how confined the restroom was but beds were comfortable and it was a decent stay for a couple of nights. There is a restaurant and Starbucks onsite that is convenient but pricey. I would recommend this hotel for any type of visit.More</t>
   </si>
   <si>
+    <t>Countrydude4444</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r350221641-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -788,6 +869,9 @@
     <t>They have fixed the place up some since our last visit.   No more rips in the wallpaper or banged up baseboards.  Since its a Courtyard , you kind of know what you are going to get   ( basic clean room )  Beds were great and very nice towels.  As ALWAYS , the service here is VERY friendly and top notch.  ( The service is one of the reasons we come here ) ..................More</t>
   </si>
   <si>
+    <t>dutchman59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r348524606-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -812,6 +896,9 @@
     <t>We stay here because it is close to the Stub Hub complex. The rooms are spacious. The friendly staff make the place. The restaurant has good food but is only open for breakfast and dinner. Internet, computers and helpful Easy access o the 410 Freeway and across the street is Toyota museum The pool is heated, hot tub and fitness room. On site laundry is a plus if you are staying long or traveling..More</t>
   </si>
   <si>
+    <t>just_cp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r346968353-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -857,6 +944,9 @@
     <t>We stayed here before a trip, The room was clean and the beds comfortable.  A nice balcony overlooking a garden area and pool.  The room has nice amenities.  The only downside was that you can tell that people smoke on the lower floors outside and it drifts into the rooms.  I at breakfast in the cafe and the manager of the hotel came over and chatted with me, he asked me about by stay and I told him that the hairdryer handle foam had become sticky and  I needed to wrap a towel around.  He immediately contacted his staff to have them inspect all the hair dryers and find a solution for future travelers.  He even offered to pay for my breakfast.  He seemed to care equally for his staff, as an emergency arose with a staff members family.  He sprang into action offering assistance to her.  I was impressed.  I felt like the entire staff truly cared and I would return here.More</t>
   </si>
   <si>
+    <t>Jeff K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r336775617-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -884,6 +974,9 @@
     <t>Nothing bad to say about this place!  Efficient and warm check in with cookies in the lobby.  Room was clean and comfortable with minimal noise.  Best of all, and compared to some fairly recent stays at other Marriot properties, we weren't rushed out of the room by the cleaning staff.  They too gave warm greetings when seen in the hallways and made no noise when cleaning nearby rooms.  We'd stay here again without a doubt!More</t>
   </si>
   <si>
+    <t>JpEkst</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r332950721-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -908,6 +1001,9 @@
     <t>As if it weren't bad enough that courtyard doesn't provide a lounge or breakfast to gold members, they made me spin a wheel yo see how many extra points I would get in lieu of the services I actually like.The bed felt like I was sleeping on plywood, and the shower was scalding hot, then luke warm, then scalding hot again.I was reserved for two nights, but left after the first to find another hotel.More</t>
   </si>
   <si>
+    <t>taarhaug</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r330254756-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -932,6 +1028,9 @@
     <t>I stayed here for three nights. Visiting Toyota the location is perfect. You need a car to get to Redondo beach but otherwise very convenient. The hotel was good, with good rooms and very good sleep quality. No breakfast included but s convenient bar downstairs that served breakfast. More</t>
   </si>
   <si>
+    <t>RCRCHK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r320440758-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -962,6 +1061,9 @@
     <t>The hotel is located near highway and airport, good for road trip as it offers free parking. It is also within 10 min drive to a large shopping mall a De La Mall with lots of restaurants and shops. The room size is decent, but the style is dated. Try to ask for a room not facing Hwy to have a better sleep.More</t>
   </si>
   <si>
+    <t>Brianwhosoever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r318007014-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -989,6 +1091,9 @@
     <t>Perfect location for being close to a Christian music concert we wanted to attend. Staff was very friendly at check in and check out. Bed was very comfortable and the blackout shades on the window worked too good. Almost slept past check out time....haven't slept that well in a long time!  Recommend highly.More</t>
   </si>
   <si>
+    <t>Nils D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r303578871-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1016,6 +1121,9 @@
     <t>We stayed for 2 Weeks at this HotelOriginally it was planed to move to the Marriot Torrance South Bay fashion mallAfter 1 WeekWe know the other Hotel and get a good Rate for Travel industries stayed there before But due the overwhelming stay at this Courtyard, which has a Star less then the real Marriot! We canceled our reservation and extended here at the courtyardIt is right at 405 that means for all trips you get in 30 sec to the freeway but not noisy.The cleaning is excellent Rooms are nice( we had a little suit with two rooms.Management is always checking if everything is in good order!Pool clean breakfast and lobby are clean but Cousy compared to the Marriot of course.The hotel has all you need and great beds and very clean facilities! Which is important for us Germans:)Main reason for 5 Star is the friendly employees and awesome management who made our visit perfect.More</t>
   </si>
   <si>
+    <t>WordTraveller99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r289264634-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1043,6 +1151,9 @@
     <t>Its pretty close to the airport and the lobby was nice and new. Nice pool and Jacuzzi along with the courtyard. The rooms were a bit dark and the beds were very uncomfortable. overall good for a one night stay before your flight.More</t>
   </si>
   <si>
+    <t>Andreas M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r288713050-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1070,6 +1181,9 @@
     <t>Excellent facility for business, pleasure or families with their youngsters to enjoy! Beautiful environment with a large pool, Jacuzzi, clean and well maintained grounds, also Free Internet access in all rooms. I had requested an early check in upon my arrival, and Miss Eydie, a very pleasant young lady accommodated me as I had to wait just a short while since they were completely booked the previous evening. The entire staff was very pleasant and friendly. Was not surprised, as always when I stay at a Marriott, their rooms and bathrooms are clean. The establishment had a medium size dining area in the lounge for breakfast, vending machines and internet access area. Met some very interesting guests from Japan and Jordan that were staying at this facility and were enjoying it as well.More</t>
   </si>
   <si>
+    <t>TM4789</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r287958036-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1097,6 +1211,9 @@
     <t>It is super convenient to the company I visit here.  The rooms are clean and staff are polite.  It is fine for standard business travel, and excels at being just above average.The bistro has good breakfast fare with healthy, albeit slightly over priced, options.More</t>
   </si>
   <si>
+    <t>anita l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r281669106-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1124,6 +1241,9 @@
     <t>This place meets all my expectations of a marriot courtyard. Clean, spacious and with courteous service. Good place for families. The pool is not heated, which is usually OK given its So Cal location. But when you have limited time and little ones want a dip after sunset, it becomes a bit of an issue.More</t>
   </si>
   <si>
+    <t>Deborah A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r279383948-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1148,6 +1268,9 @@
     <t>I loved the view from our room, we always get a one bedroom suite no mater where we stay. When we arrived early Jesica from the front desk called housekeeping right away and had our room ready when we came back from lunch. The lady that cleaned up near the pool always had a smile on her face and was very helpful, I wish I would have gotten her name. I also loved the way you can order your breakfast in the morning I will be planning a trip down there again soon and would stay there again.More</t>
   </si>
   <si>
+    <t>ETC2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r279359481-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1163,6 +1286,9 @@
     <t>This property has the best employee/crew.. We stay for a family visit, and we are looking for a place like home and we found it at courtyard marriott, torrance south bay, its not our dirst time to stay, so i guess it time for me to do the review.. This place has everything you need if your a awy from home close to everything and they offer all what you need in the lobby bar/coffe bar..!! You can give it a try and you find out thats its not only for a family stay but you can do it also as a bussinesse trip..!!More</t>
   </si>
   <si>
+    <t>De'Lisa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r269823547-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1181,6 +1307,9 @@
     <t>I booked this because my mom is a travel agent and I was very impressed with my choice. we had booked a suite which was better than we expected it was very spacious and I love the fact that the blinds in the room blocked out the sun. When I woke up I didn't not believe it was almost 830 am since I usual wake up at 6am everyday. It was very quiet besides the kids running up and down the halls but what can you expect they're kids. The front desk was really nice and answered all of our questions. So overall a nice stay and we will stay there again. :)More</t>
   </si>
   <si>
+    <t>WikitT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r269336726-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1208,6 +1337,9 @@
     <t>Apparently a septic tank burst somewhere in this place because it stank terribly for the 4 days I was there. The hotel looks like the rooms haven't been updated since the 70s except putting in a new tv. The bistro, as can be expected, is overpriced. I really hope the company didn't pay more than $50 a night because that's the most that it's worth. If you want to stay in this area, just go to the Miyako Hybrid hotel. You won't be disappointed. Courtyards always let me down. Worst hotel in the Marriott lineup.More</t>
   </si>
   <si>
+    <t>Scott C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r267460680-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1232,6 +1364,9 @@
     <t>Just like the title says the hotel is nice.  It is older but has been remodeled well.They charge for coffee, internet, fruit, breakfast...Plenty of hotels around with the same room that provide fruit in the lobby, cookies, coffee ect ect...I wont stay here againMore</t>
   </si>
   <si>
+    <t>philipr144</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r261135424-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1253,6 +1388,9 @@
     <t>I had booked a room at the Redondo pier inn.  We were visiting family for Xmas. That place was a joke. Never go there. Read my reviews to see why. We ended up going to the Marriott on my families recommendation. It was the same price but way better. Clean rooms and front desk staff was super friendly. I like how there was ample parking around the building so no matter where your room was you were some what close to your vehicle. Its just a short drive to Redondo which made it perfect for us. Up the street was gas stations and food places. Even the freeway entrance was close. Its a good location if you have to come to the Redondo or Hermosa area. I think we paid about $100 per night. Good dealMore</t>
   </si>
   <si>
+    <t>david w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r260076153-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1268,6 +1406,9 @@
     <t>Visited family in the South Bay area and also shopped for a car for our daughter while we were there. Easy access from 405/110 Freeway, close to shops and food. You really need a car as nothing is easily accessible by foot. As it was raining (yes really in LA!) we didn't get the chance to use the pool.Restaurant food was so so and not cheap , better going out to eat even for breakfast</t>
   </si>
   <si>
+    <t>JacMike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r260033212-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1292,6 +1433,9 @@
     <t>Stayed here for a quick business overnight.  The rate was cheapest for the area and the office is right down the street.  Quick efficient check in - she was certainly polite, but was to the point and quick.  The lobby was nice some space to set with others and work on the laptop.  I did notice that the elevator buttons - specifically the numbers - were broken off or burnt off.  The room was ok - what you would have expected to get alongside the freeway.  Towels were a little thin and there was hair in a few spots through out the room.All of this was somewhat expected - my decision to stay here was price and location driven.More</t>
   </si>
   <si>
+    <t>quiqueCalgary</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r256082340-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1316,6 +1460,9 @@
     <t>We stayed in that area to visit some friend in Torrance, the location is great, right on the exit of the freeway, and the rooms are not noisy. Very well insulated from highway noise.Breakfast was in included in my room rate, and was very good. Doors are a little thin and you can hear some noise coming thru. The price a little bit on the high side, but still acceptable.More</t>
   </si>
   <si>
+    <t>forteiii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r249256764-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1331,6 +1478,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Viking94708</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r247483472-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1346,6 +1496,9 @@
     <t>I recently stayed here and did some shopping around before selecting, both within the Marriott chain and outside of it.  This property is very convenient, easily accessible from anywhere in the South Bay and offers the best return on your $$$ of any hotel in the 3 star category.  It doesn't hurt that they have 5 star customer service!</t>
   </si>
   <si>
+    <t>Shannon G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r240169721-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1364,6 +1517,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Cindy O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r235916805-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1382,6 +1538,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>dancemom6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r231371274-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1406,6 +1565,9 @@
     <t>We came here on a vaction spending 3 weeks in southern california. This was one of our most unpleasant stays. The hotels location is not in a very safe area. Also i would not recomend for familys. The staff was ok. They had one very sweet girl, Shar. We ended up checking out early and going to the other courtyard.More</t>
   </si>
   <si>
+    <t>mdlegend</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r228907703-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1427,6 +1589,9 @@
     <t>This location on 190th street right off the 405 is a good business location.  Nice hotel with a good selection of food at certain times of the day and night.  They have a small bar area as well. Good open spaces for relaxing and a nice pool outside as well.  Free parking which is a plus.  Rooms are nice sized overall and have sliding glass doors with screens to a small balcony outside.  Location is good for personal trips as well to if your traveling around the CA coast to visit many places such as Venice Beach, Manhattan Beach, Hermosa Beach, Long Beach, etc.More</t>
   </si>
   <si>
+    <t>MainP&amp;J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r226329158-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1454,6 +1619,9 @@
     <t>I stayed in May 2014 for 5 nights, and was very pleased with my experience at the Courtyard. The hotel was exactly as I would expect for a Courtyard, with good customer service from the staff, and clean, well appointed rooms. The location is very convenient, with immediate access to I-405 and nearby restaurants and necessity shopping. I would definitely stay again if returning for work, choosing this over other available options.More</t>
   </si>
   <si>
+    <t>M C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r222921167-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1479,6 +1647,9 @@
   </si>
   <si>
     <t>This hotel has one of the nicest and most helpful staffs I've come across.  They seem to go above and beyond.  From helping us with lost luggage to letting us check out late.The Bistro was nice and had a better complimentary breakfast than other chains.  There was also a market for snacks and incidentals.  There are no restaurants in walking distance, but everything you could want within I'd say 5 miles.  We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>EWWSanFrancisco</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r220554392-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
@@ -1513,6 +1684,9 @@
 (3) While sleeping the first night, screams of children and adults were so loud by the pool we could clearly hear it even in our 4th Fl room even with the sliding door closed. I called the Front Desk and they did...I usually stay at Marriott considering my reward membership program... and almost always opt for their Residence Inn properties. However, this time, they were fully booked in South Bay, where we needed to be for the weekend.Check-in was swift as all Marriott staff manage to do at every single Marriott property I've stayed at all these years. We also were given a "quiet room" (away from the freeway), extra towels and extra pillows- all of which I had requested at the time of our reservations.   But, all went downhill from there for the following reasons:(1) All Marriott properties are no-smoking. Yet, I caught 2 patrons smoking by the elevator and the hallways. I reported the matter to the Front Desk but don't know what they did to rectify the matter. I saw the same patrons the next day, at the balcony on the 2nd Fl , once again , smoking in the balcony...(2) The A/C was a bit difficult to monitor- I had it on auto setting, but somehow, late evening, it just stopped, and the night was rather hot... I didn't mention this to staff as we were already busy with our own schedule;(3) While sleeping the first night, screams of children and adults were so loud by the pool we could clearly hear it even in our 4th Fl room even with the sliding door closed. I called the Front Desk and they did bring down their voices, but by then, after an hour of it, I was up and couldn't sleep.(4) While we were at the pool enjoying the day, 2 children vomited in the pool. The policy in most hotels is they close the pool down to clean it up. The smell of vomit was very strong. We immediately got out of the pool- kind of ruined our pool moments and had to cut it short.I once again called the Front Desk to advise them of this, but they didn't make any effort to close down the pool. I don't know what they did to rectify the problem.(5) On our Day 2 stay, we left early AM, and returned mid-afternoon, only to find our room still not cleaned. This was around 3:30PM on a Sunday. I called the Front Desk once again and asked what the matter was. They sent a housekeeper within minutes and we had to stay in the balcony area to allow her to do a thorough cleaning... rather inconvenient for us, when we wanted to just relax and take a nap before we headed for dinner...(6) The free wifi was slow and sporadic at times... But this is a secondary consideration when matched against all the above mishaps.....WE will NOT be staying at this property again!More</t>
   </si>
   <si>
+    <t>angeldgood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r219103092-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1528,6 +1702,9 @@
     <t>We stayed here  one night while my husband was in town on business. Customer service was good; the rooms were nice and big; beds were comfy; Starbucks coffee available; good breakfast not included; couple of minutes drive to the beach; nice outdoor pool area. Negatives were: carpets needed replacing; water pressure was poor; fixtures  in the shower need replacing; the wireless connection was very poor in the lobby - okay in the rooms.</t>
   </si>
   <si>
+    <t>perkiegirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r216067806-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1555,6 +1732,9 @@
     <t>We stayed here three nights while job hunting.  It was located right off the 405, so very convenient.  Hotel had a lot of professionals staying there, so it was fairly quiet and the pool was nice to lay by. Internet was included, printer in lobby for use. The rooms were clean and the bed was comfortable.  Staff was friendly and very helpful.  Two huge shopping malls within five miles.  Starbucks was a couple of blocks away and plenty of restaurants around.   This hotel had an interactive information board in the lobby, that we didn't see until check out.  If they would have mentioned it at check in, we could have had more area information.  Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Jani_Vladi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r207563139-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1579,6 +1759,9 @@
     <t>The location is right off Highway 405. Very convenient for business travel. It may be a bit noisy if you are not use to city living. However the hotel has good size swimming pool, jacuzzi and fitness.The staff is very friendly and polite. I used this place on business trip and our stay was smooth. 30 people from my company stayed in this location and I have not heard a single complaint.The hotel is a bit older but renovated, you can see some signs of wear and tear but overall you have nice and fresh feeling.More</t>
   </si>
   <si>
+    <t>vicky m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r205019529-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1597,6 +1780,9 @@
     <t>Nice, clean, chic, stylish. Nice staff. A lot of good vietnamese, korean, japanese restaurants and brunch places 2-5 min a drive away. About 15 min (?) from downtown LA. I heard neighbors next door talking but I think that's the norm for most hotels. Not terrible but would be disturbed if I heard sex.More</t>
   </si>
   <si>
+    <t>FoodieFrom20147</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r201618411-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1648,6 +1834,9 @@
     <t>Nothing fancy,  BUT , it has everything you would want.  Very clean rooms .  Very nice bed . Nice big pool area . Friendly and helpful employees and very fair room rates for the area . I would stay here again if in the area .More</t>
   </si>
   <si>
+    <t>brian796</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r188572227-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1675,6 +1864,9 @@
     <t>You know exactly what to expect when you go to a Courtyard and this visit was no better or worse than the typical Courtyard experience.  Friendly greeting upon arrival, quick check-in, typical room.  No complaints, would stay again.More</t>
   </si>
   <si>
+    <t>mebejim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r187661794-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1699,6 +1891,9 @@
     <t>One of the things I love about Marriott properties is that, for the most part, you know what to expect.  A professional staff, well kept property, comfortable bed, clean room are all things we look forward to.  This property is no exception.  We enjoyed our stay and found no surprises.  The pool looked lovely. We had too little time to enjoy it.  There are electric outlets everywhere.  The bed was soft and everything we needed was right there. I look forward to returning.More</t>
   </si>
   <si>
+    <t>LTo1985</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r182106169-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1723,6 +1918,9 @@
     <t>Stayed here for a business trip. On the second day of my trip, I woke up at 2 am because I felt something crawling on my shoulder. Come to find, it was a termite! I had a great deal of anxiety and couldn't fall back asleep for another hour or 2. Woke up at 7 am feeling totally grossed out! Inspected my bed and found another termite on my pillow!!! There were also a few ants crawling on the headboard. I had to jump in the shower right away! My roommate called the front desk and demanded another room. The gal that answered wasn't too friendly or sympathetic. She gave a bit of an attitude. Wrong timing to give an attitude lady! Anyway, we had to leave for work so they said they will change rooms for us when it's available and the housekeepers will transfer our luggage. After work, we went to the front desk to get the keys to our new room. The gal that helped us was much more friendly. They upgraded us to a suite and left 2 bags of snacks and goodies in our room. I appreciate the nice gesture but it still doesn't change the fact that I woke up with bugs in my bed. I felt disgusted and will never stay at this hotel ever again!More</t>
   </si>
   <si>
+    <t>OatmealO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r181823682-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1744,6 +1942,9 @@
     <t>The Courtyard South Bay is a clean hotel.  The rooms were very nice an comfortable.  The first night I thought the hotel was empty because it was so quiet but they were actually pretty full. Our room was facing the 405, and it was still quiet.  The pool area is beautiful, although small.  But the kid liked swimming in it, even though it was cold.  Be aware that the hotel is in a business park area and there wasn't much in the way of restaurants within walking distance (at least not that we saw).  And the hotel just has a small bistro.  There are plenty of restaurants within a short drive.  Great central location to the airport and the PCH.  Went for a business conference/personal vacation.  The conference rooms are very tiny when you have 30 people in the room.  The staff was excellent and helpful as well.More</t>
   </si>
   <si>
+    <t>Timothy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r181041304-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1771,6 +1972,9 @@
     <t>The lobby of the motel has a cafe/restaurant that was delightful. I came in late and needing dinner, and had a very tasty burger, with a bowl of french fries that I couldn't possibly finish. The staff in the cafe were outgoing and friendly, and made the experience fun. I stopped in the next morning for breakfast, and had a similar experience - good food, solicitous staff, reasonable prices. There is also an alcove with a big screen television and a couch in the lobby. I didn't have time to check out the pool or exercise room. The room itself was okay, but the bed squeaked with every tiny movement, and two bottles of water had very small print that said if I opened one, it would cost me $3.50. Larger warnings would be appreciated. otherwise, I enjoyed my stay.More</t>
   </si>
   <si>
+    <t>LAnce C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r178033482-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1795,6 +1999,9 @@
     <t>Stayed on September 13th, 2013. Great location right off of the freeway exit, so easy to find. Plenty of shopping right up the street to pick up things you may have forgotten (Walmart), and quite a few places to eat nearby. Not a whole lot if "action" in the area (mostly business and industrial), but two really nice and HUGE malls less than three miles away. The rooms are average...nothing special, but ask for one facing the courtyard if you prefer quiet. It was nice to have a balcony to eat and talk on, and I imagine in the summer that it's less quiet because of the pool, but no one was in it when we were there. Overall, great experience for the price (89 for AAA members), and close enough to the highway to travel all around greater L.A.More</t>
   </si>
   <si>
+    <t>Linda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r177622476-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1813,6 +2020,9 @@
     <t>stayed here on our recent trip to LA, very disappointing for a Marriott - dont ask for a bottle of water later at night , they do not supply water in the rooms so you have to go downstairs and get it yourself $ STAR, the general attitude of the staff is very poor they dont give a damn basically - would never stay here again.More</t>
   </si>
   <si>
+    <t>Tcntmpbay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r175810067-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1840,6 +2050,9 @@
     <t>My brother recently passed away.  The family needed a hotel that was convenient to everyone and with special accommodations (children, single adults, etc.).  This was the perfect venue for all of us (needing 4 rooms).  We were comfortable and convenient to the local family and events.  Would go back to this hotel again in the future when in the LA area.More</t>
   </si>
   <si>
+    <t>Alan N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r171611070-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1864,6 +2077,9 @@
     <t>I was in town for 2 nights and this place was the spot... Nice and close to LAX, right off the 405 exit and was worth it... I recommend this to anyone that's on a budget because it doesn't get any better than this...The bed was comfortable, the room clean &amp; spacious...was able to walk out into the courtyard overlooking the pool facilities...Hot tub and pool are there, nice and tranquil for the stay.  A definite stay hotel, just wish there were some additional food options within walking distanceMore</t>
   </si>
   <si>
+    <t>amomnus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r169818349-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1891,6 +2107,9 @@
     <t>We had a one bedroom suite which was very nice for a family of four. The room was clean and nicely decorated. Our room came with a complimentary breakfast from the Bistro which was an added bonus.  The staff was not overly friendly.  No smiles during check in, but maybe they were having a bad day.More</t>
   </si>
   <si>
+    <t>Rhonda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r169479612-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1909,6 +2128,9 @@
     <t>We had business with Toyota so this hotel was in the perfect location. It is clean and comfortable. The staff is pleasant. The bistro is conveniently located. The food is okay but nothing special.The free Wi-fi was a nice bonus. I slept on the fold-out couch. Not comfortable but adequate. I have no complaints about this property but there was no "wow" factor.More</t>
   </si>
   <si>
+    <t>Koti333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r164925927-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1936,6 +2158,9 @@
     <t>The front desk was great, they were super helpful.  The room was clean, room service was great.  The women at the cafe were great (lines were long on a Sunday Morning).  But the beds were what you would expect at a low rent motel.  Horrible, you can feel every spring.  I woke up and called my chiropractor.Close to Exxon refinery and the Honda plant.  Walking diestance to a Hydrogen station.  5 miles from Venice Beach.  Since my objective a hotel is sleep I wouldn't recommend it, due to the mattresses.More</t>
   </si>
   <si>
+    <t>Gawtti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r164558015-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1954,6 +2179,9 @@
     <t>I was in town for a quick trip (2 nights) and this place was the spot... Nice and close to LAX, right off the 405 exit and was worth it... I reccomend this to anyone that's on a budget because it doesn't get any better than this... I was on the 4th floor in room 402 and will stay here again if I need too...EnjoyMore</t>
   </si>
   <si>
+    <t>JKCJES</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r164078636-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -1978,6 +2206,9 @@
     <t>We arrived early and we were able to get our room right away.  Shar, front desk was phenomenal.  She was able to get a room that was fitted perfect for my wife.  We only stayed one night, but everything was great.  Quiet, bed was comfortable and got a good night's sleep for early medical procedure.Try the grilled chicken quesadilla and the French dip sandwich.  They were both really good, although the French dip was small.  Cudos to Dave and Franco in the Bistro.Would definitely return.More</t>
   </si>
   <si>
+    <t>DebDaveLuke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r162060252-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2005,6 +2236,9 @@
     <t>We booked this hotel to stay at for a Galaxy game.  It is very close to the stadium.  The lobby is very nice..trendy and comfortable.  The room was big for 4 people..just the bathroom was a little cramped.  I used the fitness center..small but adequate.  The kids had a great time in the pool..but I had to ask for towels twice. The included breakfast was awesome!  It was made to order and there were many choices.  They even brought it to the table and cleaned up.More</t>
   </si>
   <si>
+    <t>StefanoRimini</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r161745057-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2026,6 +2260,9 @@
     <t>The hotel is nice, with a nice pool, very spacious and very clean. The breakfast is a bit limited in choice. I had a few problems during our stay, but the manager and staff members were able to overcome them brilliantly, demonstrating high standards of efficiency and turning my judgment to be insufficient to very positive.More</t>
   </si>
   <si>
+    <t>John-OKeefe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r160129917-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2050,6 +2287,9 @@
     <t>I usually stay at the El Segundo Courtyard because it is close to LAX, but I am visiting customers in Torrance, so chose this Courtyard instead. It is pretty much undistinguishable from the El Segundo Courtyard (which is not a bad thing), but 2 people working there make it special. Patricia and Dean work most nights in the Bistro, and they are the stars of this Courtyard. They are friendly, efficient and just wonderful people. Congratulations to Courtyard on hiring these 2 stars!More</t>
   </si>
   <si>
+    <t>BugattiBoi88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r156736453-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2077,6 +2317,9 @@
     <t>stayed here back in December for a quick weekend get away and this turned out to be actually a very nice courtyard! Wouldn't mind staying here again! For the price I nailed on Expedia it was well worth the money spent!More</t>
   </si>
   <si>
+    <t>Hkloban</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r156367399-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2098,6 +2341,9 @@
     <t>I had a pleasant stay here.  The hotel was located right off the highway and easy to find with the GPS. Plenty of free parking right at the door. The check-in staff were super friendly and efficient and everything went smoothly. The only small problems were 1) Some Courtyards offer free breakfast for Gold Members; this one doesn't and 2) this hotel did not have a room safe which I feel is essential.  The rate was fine and the room was neat, spacious, quiet and clean.  Not a lot of choice for restaurants in the immediate are but they are only a short drive away. More</t>
   </si>
   <si>
+    <t>Jana S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r154500356-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2122,6 +2368,9 @@
     <t>I stayed at this hotel for one night for business and chose it based on location to where my meeting was being held. Because of the freeway and the direction I came from, it was a little difficult to get to but my GPS on my phone got me there. The staff was super friendly and helpful (without being annoying) and I loved the way the hotel is decorated. It's very modern, so I felt confident that the room would be as well. My room was great....clean, modern and comfortable. The only drawback was the noise from the freeway because my room was on that side of the building, however, I DID choose this hotel based on it's location so I'm not complaining. I just turned on the A/C unit and it drowned out the freeway noise...  With tax, my room was just over $200 a night and I typically try to stay around $100 to $150 a night to keep cost down for my company. However, there really was nothing else close by. Overall, it was really great just a tad bit spendy for my work travel budget. More</t>
   </si>
   <si>
+    <t>premwilson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r153503188-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2140,6 +2389,9 @@
     <t>I have stayed a few times at this place. This has become way too expensive for no incremental addition of amenities or facilities, except the lobby. It is a fairly clean place and located at a very accessible location for business travellers to Toyota, ANA and Torrace area. The restaurant has some new food options for breakfast, lunch and dinner. Rooms are a tard smaller but still clean and good. However, there is no value for money.More</t>
   </si>
   <si>
+    <t>Blimp69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r152121022-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2158,6 +2410,9 @@
     <t>Not a good value. Staff good. Fairly clean. Way overpriced food and beverage. No longer offer free coffee. We used to stay here often on business. Looking elsewhere. Good location sometimes noisy due to 405More</t>
   </si>
   <si>
+    <t>LeftCoaster3400</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r150217532-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2179,6 +2434,9 @@
     <t>The location for this Courtyard is next to the 405 freeway and is convenient to corporations such as Mobil/Exxon, Honda, Toyota, Scion. Retail businesses are not within walking distance. We stay at this hotel because of it's proximity to Gardena and the beach towns. Despite its location, this is a wonderful hotel. The lobby has been remodeled within the last couple years and hosts computers and a dedicated computer for flight check-in. There is a small restaurant and bar. Comfy chairs and a huge couch in front of a large flat-screen add to the welcoming decor.I usually reserve a pool front one-room suite, but this time I reserved a two-room suite with two queens in a separate bedroom. Flat screens in both rooms, enough space for some to sleep, other to sit and visit. The patio is narrow, but nice enough to step out for fresh air. We had room 438 that looked down onto the pool/property and high enough for a sunset view. The hotel is quiet, some extra pool noise in the summer. The staff is very friendly, the rooms, clean and comfortable, and all-in-all what I've come to expect from the Marriott chain.More</t>
   </si>
   <si>
+    <t>Jelena2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r145748820-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2197,6 +2455,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Bridgetpianos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r145404780-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2212,6 +2473,9 @@
     <t>Same as other Marriott Courtyard hotels but the difference is the front desk staff. They are the best especially Amir (a 12 day stay)so everynight when I would get back they would greet me by name and set my wake up call didn't have to tell them my room. The restaurant is nice but not much of a selection. You will need a rental car because Exxon and Toyota take up the entire area infact most of the people staying there are in town for business work at Exxon so there are no good restaurants in the area. My bed was so comfortable and the hotel is very clean.</t>
   </si>
   <si>
+    <t>LeRoyGe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r145275566-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2227,6 +2491,9 @@
     <t>This Courtyard Hotel is really close by the Los Angles LAX Airport; but, it doesn’t have that Century Blvd Hotel complex feeling.It is a quick trip up Interstate 405 to Century Blvd and to the Airport.  Plus you do not have to pay Airport Rates.The hotel was very comfortable and nice.  If you need to stay near the airport LAX but don’t want an Airport hotel hassle this is the right place to be.</t>
   </si>
   <si>
+    <t>Sheg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r142353383-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2245,6 +2512,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>BreW2006</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r141855077-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2264,6 +2534,9 @@
   </si>
   <si>
     <t>I stayed here for a few days in September . The hotel was clean and the staff was friendly. The neighborhood seemed good, and the location was close enough to a supermarket and various places to eat, so that was very convenient. It's also right off of the 405, which was excellent. I didn't have any noise issues at all. The restaurant in the lobby was adequate, although somewhat over-priced so I only ate there once. Check in was quick and pleasant. At checkout I received an extra charge however. I was able to speak to someone who was able to get rid of the charge, but that would be my only gripe. Other than that, the stay was pleasant, and it was a decent value for the money. I'd stay again.More</t>
+  </si>
+  <si>
+    <t>DrewInThrill</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r141849736-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
@@ -2289,6 +2562,9 @@
 3) Free Wi-fi - while other hotels are busy making a straight killing on $10+ per day wi-fi charges per guest per device, this hotel makes standard broadband free.  It is kind of amazing that this...Stayed here in September of 2012 for 2 nights.  In the past, I've generally thought of Courtyards by Marriott as kind of a tired concept with mediocre reputation for cleanliness, features, service, etc.  This Courtyard entirely changed my perception.  Whoever manages this hotel has clearly prioritized cleanliness, neatness, service, and amenities.  The location itself is situated smack in the middle of corporate office parks and major highways, so while it is not exactly scenic, it is quite convenient.  Once you are in the hotel, however, the simple, clean, modern, and warm interior is entirely built around ease and convenience.  Features that caught my attention:1) Good quality pillows and beds - really impressive for a moderately priced hotel.  I hope for future travelers' sake the firmness of the bed and pillows is not simply because they are relatively new (i.e. I hope management maintains them well going forward).2) Clean everywhere - not just in the rooms and hallways, whoever runs this hotel seems to be obsessive about keeping everything clean and trimmed - the corners on the grass, the plant beds, even the employee areas near where the laundry gets delivered.  You don't find a lot of trash, mess, and disorganization anywhere, surprisingly.3) Free Wi-fi - while other hotels are busy making a straight killing on $10+ per day wi-fi charges per guest per device, this hotel makes standard broadband free.  It is kind of amazing that this still exists given the reasonable room rates here.4) Pool + Hot Tub - again, everything is clean, cleaner than one might expect for this kind of hotel.  I only saw a few leaves at the bottom of the pool which is pretty rare.5) Food and coffee bar - again, a very thoughtful touch catering to busy business travelers and families.  Prices are not great (a little high), but to have this kind of amenity in-house (particularly in the middle of a desolate office park) is very nice.6) Free printing from in-lobby public computers - the public computers and printers are well maintained, which is really surprising when you see most hotels (even the extremely high end 5 star ones) still have a circa-2002 Pentium computer hooked up to a non-LCD monitor.  There's ample paper in the printers and they let you print your boarding passes for free.  For the rate I paid to stay over a weekend, I'm still somewhat floored by what this hotel had to offer.  It's almost as if Marriott corporate executives were staying the same weekend and the hotel became the "model Courtyard" to show off.  I hope that's not the case, as this hotel greatly impressed me and I would definitely stay here again.  Again, scenery around the hotel is not great, but it almost doesn't matter considering the reasonable rate I paid.More</t>
   </si>
   <si>
+    <t>EfordGroup</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r136302211-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2316,6 +2592,9 @@
     <t>I had searched for days for a perfect hotel which would not brek the bank. This hotel is fabulous..a hidden secret.  Right at the 405, near starbucks, walmart etc.  the rooms and lobby are furnished like a W Hotel. The outside living room is awesome..large pool and large whirpool..free parking, lobby microwave, free wifi, best of, not too many kids..and a safe location in torrance across the strret from toyota usa headquarters..loved it and will always stay here for trip to la. It takes about 30 quick minutes to get to hollywood..well worth it..More</t>
   </si>
   <si>
+    <t>GloriaMary</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r135983760-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2340,6 +2619,9 @@
     <t>Good highway access. Easy travel to various different area's of the city and convenient to the airport. Check in was quick an efficient. We stayed in July of 2011 for a friends wedding in Santa Monica. Access to and from the lobby by was of the stairs was a bit confusing at first. We would stay here again.More</t>
   </si>
   <si>
+    <t>J304C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r135826832-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2358,6 +2640,9 @@
     <t>The rooms are very nice, the beds are extremely comfortable and the sheets feel as if they are egyptian cotton! The bar in the lobby is a little pricey but very nice and convenient. The staff has always been very friendly and accommodating. One of my favorite parts is the patio, it has a nice fireplace and lots of comfortable seating. It's been awhile since I have stayed there but it is a very nice hotel and I wish my company could find a way to use them for our meetings in the future.More</t>
   </si>
   <si>
+    <t>Carlos D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r133327291-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2385,6 +2670,9 @@
     <t>I enjoyed this haven of a hotel that was next to the freeway for easy access.  Great lobby with full deli cafe services and comfortable seating.  Rooms had a warm feel. Also they were clean and consisted of well made furniture.  Staff were friendly and helpful when approached without being annoying.  Will use again when in the Los Angeles area.More</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r129407329-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2409,6 +2697,9 @@
     <t>Hotel was very clean and staff was very friendly. Grounds are very nice and they had a nice cafe. The only thing I did not like was the bed. Both my wife and I felt like we were beat up by morning More</t>
   </si>
   <si>
+    <t>P T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r128166762-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2436,6 +2727,9 @@
     <t>Stayed here a couple of times when traveling on business. Good value for money. The rooms were pretty good and clean, very spacious too with large beds and seating areas. Small-ish workout area but suffices for a quick exercise. You can buy breakfast from the cafe at the hotel and they offer a wide set of options. Few diners around incase you want to eat out too. There are a set of shops you can walk to, if needed. Away from the city center so not best suited if you want to explore the city. But highly recommended if your work is in this area.. Very friendly staff!!More</t>
   </si>
   <si>
+    <t>Hernandezmm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r124020702-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2451,6 +2745,9 @@
     <t>The hotel is very clean, the hotel is very nice.  All staff are very professional.  Food is great.  Excellent hotel.</t>
   </si>
   <si>
+    <t>MandyMcCain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r123047235-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2470,6 +2767,9 @@
   </si>
   <si>
     <t>We stayed 7 nights in this hotel when my daughter's high school marching band was to march in the Tournament of Roses Parade on 1/1/11.  We wanted to stay close to the kids without staying WITH the kids. This hotel was relatively quiet, but some people who were there to go to the Rose Bowl game were staying at this hotel and they were quite loud.  Also, both of the very small washing machines were out of order.  We had to find a laundromat to do laundry since we were there for 8 days.  We never used the pool or hot tub, so I can't review that.  I would consider staying here again.  It was clean with free parking and free wifi.More</t>
+  </si>
+  <si>
+    <t>telenurse2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r122661108-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
@@ -2499,6 +2799,9 @@
 My little...I stayed overnight at the Courtyard by Marriot LA Torance South Bay in November of 2011 during an educational conference which was held at the hotel.  They offered us great rates for the rooms at $99 a night for a Queen suite with a sofa, entertainment area, queen bed with canopy, complementary parking and internet, etc.When I first entered the lobby I was cheered to see that they had already tastefully decorated the area for the holidays with understated greenery and trimmings.  The check in process was lightening fast, the clerk was quite friendly and efficient and notified me that Happy Hour had been extended in the lounge (other side of the lobby) until after the game (I'm not a sports fan so I'm not even certain what game was on but it sounded delightful and very friendly and hospitable that they had extended Happy Hour with 1/2 price drinks when they could have chosen to make a killing on the revelers enjoying the game instead).However; I was more interested in the internet and getting ready for my conference.  The clerk advised me as to how to log on in my room (one could also log on in the common areas either with ones own laptops or the computers provided in the Marriot business area off of the lounge and she pointed out the common business area computers and printers) and I headed to my room.My little suite was a touch of HEAVEN!  There was this delightful four poster bed with a canopy and the promised couch with multiple pillows,and a coffee table, end tables...really a little living room area plus, by the entertainment center... a desk, a table that pulled out from under the business desk area (and an extra chair) so one could make a dining area....all of quite rich hardwoods with a lovely patina  Really a suite fit for royalty and at a mere pittance.  The entertainment area itself held a HUGE TV and reception was excellent with a variety of channels for what little viewing time that I had.The bathing area was just as nice.  I enjoyed a nice long soak later after studying for my conference.In the meantime, I logged onto their excellent internet with no dificulty and went over details for the class that I was to take the next day.  At the end of my study session I got ready to gather my papers, including a pre-test (which I had printed at home prior to leaving) together...only to find...NO PRE-TEST!  Of course, I had NOT brought my printer with me.  So I rushed down to the hotels (thank God) excellent business center, logged onto their computer and was able to retake and print out the pre-test.  What a lifesaver!  By this time it was pretty quiet in the lounge, business center area as the game was apparently over.  I noted a couple of ladies, with their laptops, each with a bottle of wine and a wine glass, sipping wine and working or whatever.  The area had such a relaxing ambience that I was tempted to join in, sitting there with my own laptop, sipping wine, enjoying the lovely understated tasteful holiday decorations, so peaceful...so lovely...but then I remembered how early I had to be up so it wasn't meant to beAfter my conference the next day there was a problem in that one of my certifications, which I absolutely HAD to have THAT day(as, due to business I was moving so mailing it to me was NOT an option) wasn't with the company representative from the conference.  He called his company and they had to create and fax the certificate to the hotel.  The clerks at the desk were GREAT about haunting the fax machine for me until the all important fax with my certificate came through.Overall I was more than happy with my stay at the Courtyard Marriot LA Torrance/South Bay..from the cheerful holiday decorations in the lobby to the efficient check in, the business services offered, the excellently appointed room at a more than reasonable price, the business center, the relaxing lounge and common areas, everything.  I cannot think of a single con, all pros, from the start of my stay to the finish.I might add that they have a small but adequate fitnes area that is open 24/7.I would highly recommend this hotel to any traveler for business or any travel need.More</t>
   </si>
   <si>
+    <t>Newhiker1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r119648979-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2517,6 +2820,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>WorstWestern</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r119237933-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2541,6 +2847,9 @@
     <t>On checking into this Courtyard, I am reminded why Hilton is getting my business recently. I requested a quiet room on the top floor and what do I get – A room on the second floor closest to the both the freeway and the on ramp. As I write this, a motorbike is revving as it waits for the light to change.  I am tired of being lied to. In addition the “high speed” internet is roaring along at 0.8 Mbps, a little faster than a dial up connection. I am tired of being lied to. I have been a Platinum member of Marriot for some years now but thanks to service and lies like this, the Hilton chain has my business.More</t>
   </si>
   <si>
+    <t>Genevax</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r119161730-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2559,6 +2868,9 @@
     <t>Looks like the place has had a recent do-over.  Nice color scheme.- I had room at the north end, close to the 405.- Double glass sliding doors cut-out the noise immensely.- King size, hard bed (for me)- Lotsa pillows, but needed variety of firmness.  All too soft- Refrigerator- Bottled water @ $3.50 each- Wi-Fi - no extra charge- Sleeper sofa- Large flat screen TV w/HBO (Yay!)- Nice deco- Free coffee until 10am- Bistro for breakfast and dinner- Market Place in lobby for snacks and forgotten toiletries, etc- Couple of conference rooms- Nice lounge area- Mill's Diner 1 block away, fast food up the road and an Albertson's within a mile or twoOverall, another great stay at a CourtyardMore</t>
   </si>
   <si>
+    <t>Roblou63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r115678630-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2577,6 +2889,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>kathie859</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r115182481-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2595,6 +2910,9 @@
     <t>I stayed here for a week during a family member's relocation to Ca.  The hotel was clean and convenient enough--but if you choose not to eat in the onsite cafe, there's no other restaurants within convenient walking distance.  Also, complimentary coffee in the morning is only for a few hours and the cafe isn't open all day.  There is a coffee maker in the room--but I find that coffee usually tastes like swill coming out of those small pots.  The pool, hot tub and gym areas are well maintained.  The staff was very helpful when I needed some photocopying done and I was able to check in early after a cross country flight which was great.  All in all a good value and I'd stay there again.More</t>
   </si>
   <si>
+    <t>thebosso</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r114885704-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2608,6 +2926,9 @@
   </si>
   <si>
     <t>Qantas dumped us in this 3 star when they cancelled our flight. Would not be our choice, especially as it is quite a drive in traffic from LAX. There's another more classy looking Marriott nearby that our shuttle driver took us to in error.The front office and cafe staff were helpful and pleasant but we would not chose to stay here.The corridor carpets reeked of disinfectant smell. I guess the airline uses it because it is cheap.</t>
+  </si>
+  <si>
+    <t>svc1785</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r108318672-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
@@ -2637,6 +2958,9 @@
 One of the days we went to the pool. It seemed to be a heated pool as the temperature was definitely warmer than the day! In either case it didnt matter to the kids, they jumped in and...My family and I stayed at this hotel for two nights in May 2011. The hotel seems to have been recently renovated and/or redone. It looks very modern and clean. The decor is welcoming and the staff friendly. The hotel is located in a commercial district and is surrounded by office buildings. There is not much to do around the hotel with little kids. However Redondo Beach and it's cute downtown are quite close by (15-min. drive). Some of the folks complained about the noise from 405. I would definitely recommend calling the hotel ahead of time and asking for a room away from the freeway. We got a room facing the pool and noise was not a factor.The hotel has a bistro on-site which offers the usual breakfast menu and a condensed Starbucks menu. We got a package from the hotel which offered breakfast for 2 adults and 2 children for $10. That was a real good deal! The breakfast was hearty and kept us going till late afternoon. There are little booths with their own TV where you can have breakfast in the lobby. My kids loved that! They were watching Spongebob while having breakfast - a vacation treat!One of the days we went to the pool. It seemed to be a heated pool as the temperature was definitely warmer than the day! In either case it didnt matter to the kids, they jumped in and had a blast!More</t>
   </si>
   <si>
+    <t>angel90008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r104208903-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2658,6 +2982,9 @@
     <t>I have been to this hotel numerous of times over the last decade. This was probaly my fist time visiting in the last year. I was suprised to see that they had remolded the lobby. Everything was beautiful and modern. The staff was nice. The room was clean and comfortable. As always the price was reasonable. This place is simple but lovely. If you are looking for a nice quiet place that is not over the top, this is the place for you. It is in a nice location. It  is really close to the 405 freeway. It is near a walmart and lots of fast food eating places. There is also a restaurant at the hotel, but in all the times I have been there I don't think I have ever eaten there.More</t>
   </si>
   <si>
+    <t>Shortjud</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r103164268-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2676,6 +3003,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>Knights82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r60475535-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2694,6 +3024,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>honkbopsax</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r49066181-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2712,6 +3045,9 @@
     <t>February 2008</t>
   </si>
   <si>
+    <t>ppbcup</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r36731072-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2733,6 +3069,9 @@
     <t>I was a little worried after reading some of the other reviews on Trip Advisor but the rate was good and it was in a decent location so we went for it.My husband and I were spending the weekend in LA and needed something inexpensive and nice.  The hotel is right off of the freeway exit so the location was convenient.  It is in a business park area so it was very quiet when we stayed.  There is noise from the freeway but we kept our patio door closed and couldn't hear a thing. The entrance and lobby were very nice, nicer than I had expected.  My only complaints are that the room had a musty smell and the carpet throughout the room felt damp.  Other than that the room was clean and well kept.  It is updated but not high end.I would definitely recommend the Courtyard for those with a family as they have a pool and small quick service convenience/ snack bar.  And free parking in LA is a plus!!More</t>
   </si>
   <si>
+    <t>mgooddeals</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r23758919-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2751,6 +3090,9 @@
     <t>After reading some of the reviews on this site, I was a little weary, especially since I had gotten a great deal for a one-night stay thru Priceline.  When I arrived, I requested a room that did not face the highway.  The only room not facing the highway was a king handicapped room, and I needed a full length armoire, so I opted for a room facing the highway instead.  The man checking me in was very friendly and I did not feel I was treated differently even though I booked via Priceline.The noise from the highway at night wasn't that bad.  I had the fan/heater on all night for white noise, so that might have helped.Overall, I would never pay full price for this hotel, but for $45, it was definitely worth it!More</t>
   </si>
   <si>
+    <t>mel88hrman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r20516843-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2769,6 +3111,9 @@
     <t>September 2008</t>
   </si>
   <si>
+    <t>ksrinlv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r18883391-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2785,6 +3130,9 @@
   </si>
   <si>
     <t>August 2008</t>
+  </si>
+  <si>
+    <t>fenwayman</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r12765630-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
@@ -2814,6 +3162,9 @@
 The room was really tired. Except for the linen, everything was a dark brown, and the curtains a...I have stayed one week each year at this Courtyard. This was my fourth stay. I have watched it decline from a nice, friendly place to a worn out, sad one. I noticed quickly that a great many of the staff at the hotel showed no warmth or niceness. They were efficient, but there were no smiles, no sense of service. The desk staff when I checked in and the wait staff at the restaurant were simply cold. It was off putting as I am used to being welcomed back. Interestingly, the housekeeping staff and engineering staff were all smiles and very nice.The room I was given faced the access road for highway 405-South, and there was constant road noise. Unfortunately this was not the worst of it. There was a low and constant rumble that turned out was the air conditioner on the roof; engineering addressed this immediately but I had to ask a couple of times to have it readdressed. And though it was not the hotel's fault, the guests in the room next to mine set up a bicycle on a stationary mount and were "racing" it periodically, creating a great and ever present whooshing noise that permeated my room. The hotel staff were far more interested in figuring out what that noise was than in stopping it.The room was really tired. Except for the linen, everything was a dark brown, and the curtains a beige which made them look dirty. The room had a faint odor of dirt, and the whole hotel looks like it could use a deep steam cleaning. The room did have a refrigerator and the bathroom was nice, with great water pressure and fluffy towels. But the bedroom was dark and even with the lamps on, it felt dark. The room also had a balcony but with the traffic noise, it was not worth using. As the week went on the staff grew a bit more friendly and there really was never a time when they did not at least attempt to solve a problem. Some staff were notably more interested than others: it became a case of if I was told no, try again after the shift change. They were fully sold out with young international bicycle racers many staying four to a room, so their resources may have been taxed and each staffer tired, so it might have been better another week. Nonetheless, there was a surprising amount of room for improvement here and I was disappointed.More</t>
   </si>
   <si>
+    <t>turkeysurke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r12352683-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2835,6 +3186,9 @@
     <t>I went to visit some friends for the holidays and needed a place to stay. They only one nearby was this hotel. The freeway concerned me but the service was even worse. (one of the reviewers said that the freeway was 20 feet away - this is not an exaggeration!)The rooms are not dirty but worn down from age. They should refurbish them because it resembles a motel than a hotel. This is something very unlike Marriott because most of the Marriott hotels that I have been to were very impressive and wonderful stays.But the worst part is the security. They don't have any idea what the heck is going on. I was sitting in my car for a few minutes to jot down a note on something when I was accosted by the security. The big dumb ox started asking me questions for five minutes and was extremely rude. I went to complain to the front desk and the staff were decent and apologized. I am in no position to judge the security because I don't know how they operate - all I'm saying is don't sit in your car for more than 30 seconds because the Barnie Fiffes over there are gonna come and ask you a bunch of dumb questions.More</t>
   </si>
   <si>
+    <t>Omnijonn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r11131614-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2853,6 +3207,9 @@
     <t>I had an early (read: arrive at 7:30AM) exam at the Pearson testing center on 190th street in Gardena/Torrance.  After searching for hotels nearby, the Torrance Courtyard appeared to be the closest by far.  I called at 4:15 pm the day before I was to check in, gave the reservation agent my personal and billing info.  I requested a quiet room so that I could rest for my exam.  At 9pm, I arrived at the hotel and was informed that I had no reservation, and that all rooms were filled.  at 9:15, the front desk was still figuring out what my situation was... at 9:30, someone called to cancel their reservation and I was informed that I would have the opportunity to fill the vacancy.  I reiterated my request for a quiet room but was informed that the only vacancies were on the exterior of the "Courtyard".  Facing which direction, I asked?  I was flatly told that my room would face the freeway onramp not 20 yards away.At this point, I called around, found a Holiday inn nearby (on Vermont) that HAD availability, HAD quiet rooms and DIDN'T waste my time.I would have preferred the 3 block walk to my exam instead of the 5 minute drive, but I still can not fathom how this place operates and does business.Incredible.More</t>
   </si>
   <si>
+    <t>NY11373</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r3846519-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
   </si>
   <si>
@@ -2869,6 +3226,9 @@
   </si>
   <si>
     <t>Stayed here via. Priceline at a good rate. Check in was fast, but when I went to the room, I discovered a sticky spoon on the bed. I went down to the lobby and was told the maid hadn't finished cleaning the room. The manager called and apologized and said the room should not have been given out yet. After that, everything was OK. The room was nicely maintained and clean, although the hallways did not smell too fresh. One annoyance was that the TV is to the right of the bed. This seems to be the norm at Courtyards. The location is off the freeway in an industrial area. There are not too many restaurants except Denny's, which is a dump. Try driving up Western about a mile where there are many Japanese and Korean restaurants. For a cheap meal, try Yoshinova. The hotel is 15 minutes from both LAX and Long Beach. Prefer to stay here then airport hotels that add parking fees.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82347-r858183-Courtyard_Los_Angeles_Torrance_South_Bay-Torrance_California.html</t>
@@ -3394,43 +3754,47 @@
       <c r="A2" t="n">
         <v>18074</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>16829</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3444,50 +3808,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>18074</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>133195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3501,50 +3869,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>18074</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>133196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3558,50 +3930,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>18074</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>133197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3619,50 +3995,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>18074</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>133198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3676,50 +4056,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>18074</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>133199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -3739,50 +4123,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>18074</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>133200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>85</v>
-      </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3796,50 +4184,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>18074</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>31773</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3853,50 +4245,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>18074</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>133201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3916,50 +4312,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>18074</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>133202</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3973,50 +4373,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>18074</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>133203</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -4034,56 +4438,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>18074</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>133204</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -4101,56 +4509,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>18074</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>133205</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4166,56 +4578,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="X14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>18074</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>133206</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -4233,56 +4649,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>18074</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>133207</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -4300,56 +4720,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="X16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>18074</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>133208</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -4367,47 +4791,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="X17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>18074</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>26344</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
@@ -4424,56 +4852,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="X18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18074</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>6371</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4485,56 +4917,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>18074</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>133209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -4550,47 +4986,51 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>18074</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>133210</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
@@ -4607,56 +5047,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>18074</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>32497</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4672,56 +5116,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="X22" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>18074</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>133211</v>
+      </c>
+      <c r="C23" t="s">
+        <v>224</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
         <v>204</v>
       </c>
-      <c r="J23" t="s">
-        <v>205</v>
-      </c>
-      <c r="K23" t="s">
-        <v>206</v>
-      </c>
-      <c r="L23" t="s">
-        <v>207</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>185</v>
-      </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4739,47 +5187,51 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="X23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="Y23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>18074</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>91632</v>
+      </c>
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
@@ -4796,56 +5248,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="X24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>18074</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>48444</v>
+      </c>
+      <c r="C25" t="s">
+        <v>242</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4863,56 +5319,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="X25" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>18074</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>133212</v>
+      </c>
+      <c r="C26" t="s">
+        <v>249</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4930,56 +5390,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="X26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="Y26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>18074</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>133213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4991,56 +5455,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="X27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>18074</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>124132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -5058,56 +5526,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="X28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="Y28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>18074</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>133214</v>
+      </c>
+      <c r="C29" t="s">
+        <v>279</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -5125,56 +5597,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>18074</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>133215</v>
+      </c>
+      <c r="C30" t="s">
+        <v>288</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -5192,56 +5668,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="X30" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>18074</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>133206</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5257,56 +5737,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="X31" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="Y31" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>18074</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>39254</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="J32" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="K32" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -5324,56 +5808,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="X32" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="Y32" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>18074</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>133216</v>
+      </c>
+      <c r="C33" t="s">
+        <v>314</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="J33" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="K33" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5385,47 +5873,51 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="X33" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="Y33" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>18074</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>133217</v>
+      </c>
+      <c r="C34" t="s">
+        <v>323</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="J34" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
@@ -5442,56 +5934,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="X34" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="Y34" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>18074</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>133218</v>
+      </c>
+      <c r="C35" t="s">
+        <v>332</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="J35" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="K35" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="O35" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5503,56 +5999,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="X35" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="Y35" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>18074</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>133219</v>
+      </c>
+      <c r="C36" t="s">
+        <v>343</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="J36" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="K36" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5564,56 +6064,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="X36" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="Y36" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>18074</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>133220</v>
+      </c>
+      <c r="C37" t="s">
+        <v>353</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="J37" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="K37" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="L37" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5625,56 +6129,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="X37" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="Y37" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>18074</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>133221</v>
+      </c>
+      <c r="C38" t="s">
+        <v>363</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="J38" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="K38" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="L38" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5692,56 +6200,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="X38" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="Y38" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>18074</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>133222</v>
+      </c>
+      <c r="C39" t="s">
+        <v>373</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="J39" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="K39" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="L39" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="O39" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5759,56 +6271,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="X39" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="Y39" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>18074</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>55749</v>
+      </c>
+      <c r="C40" t="s">
+        <v>383</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="J40" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="K40" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="L40" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5820,56 +6336,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="X40" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="Y40" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>18074</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>133223</v>
+      </c>
+      <c r="C41" t="s">
+        <v>393</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="J41" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="K41" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5881,56 +6401,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="X41" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="Y41" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>18074</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>3999</v>
+      </c>
+      <c r="C42" t="s">
+        <v>403</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="J42" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="K42" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="L42" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5948,56 +6472,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="X42" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="Y42" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>18074</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>133224</v>
+      </c>
+      <c r="C43" t="s">
+        <v>412</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="J43" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="K43" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="L43" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -6009,56 +6537,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="X43" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="Y43" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>18074</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>133225</v>
+      </c>
+      <c r="C44" t="s">
+        <v>418</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="J44" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="K44" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="L44" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -6078,50 +6610,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>18074</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>133226</v>
+      </c>
+      <c r="C45" t="s">
+        <v>425</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="J45" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="K45" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="L45" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -6133,56 +6669,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="X45" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="Y45" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>18074</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>657</v>
+      </c>
+      <c r="C46" t="s">
+        <v>435</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="J46" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="K46" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="L46" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -6198,56 +6738,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="X46" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="Y46" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>18074</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>133227</v>
+      </c>
+      <c r="C47" t="s">
+        <v>444</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="J47" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="K47" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="L47" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="O47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -6261,50 +6805,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>18074</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>133228</v>
+      </c>
+      <c r="C48" t="s">
+        <v>452</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="J48" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="K48" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="L48" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -6324,50 +6872,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>18074</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>133229</v>
+      </c>
+      <c r="C49" t="s">
+        <v>458</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="J49" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="K49" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="L49" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -6385,56 +6937,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="X49" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="Y49" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>18074</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>133230</v>
+      </c>
+      <c r="C50" t="s">
+        <v>467</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="J50" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="K50" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="L50" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -6452,56 +7008,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="X50" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="Y50" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>18074</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>2520</v>
+      </c>
+      <c r="C51" t="s">
+        <v>476</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="J51" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="K51" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="L51" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6521,50 +7081,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>18074</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>133231</v>
+      </c>
+      <c r="C52" t="s">
+        <v>482</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="J52" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="K52" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="L52" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6582,50 +7146,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>18074</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>57940</v>
+      </c>
+      <c r="C53" t="s">
+        <v>488</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="J53" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="K53" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="L53" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6649,50 +7217,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>18074</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>133232</v>
+      </c>
+      <c r="C54" t="s">
+        <v>495</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="J54" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="K54" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="L54" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="O54" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6710,41 +7282,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>18074</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>133233</v>
+      </c>
+      <c r="C55" t="s">
+        <v>502</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="J55" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="K55" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="L55" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
@@ -6771,56 +7347,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="X55" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="Y55" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>18074</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>133234</v>
+      </c>
+      <c r="C56" t="s">
+        <v>511</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="J56" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="K56" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="L56" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6836,56 +7416,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="X56" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="Y56" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>18074</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>133235</v>
+      </c>
+      <c r="C57" t="s">
+        <v>519</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="J57" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="K57" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="L57" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6903,56 +7487,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="X57" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="Y57" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>18074</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>19716</v>
+      </c>
+      <c r="C58" t="s">
+        <v>529</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="J58" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="K58" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="L58" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6968,56 +7556,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="X58" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="Y58" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>18074</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>133236</v>
+      </c>
+      <c r="C59" t="s">
+        <v>539</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="J59" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="K59" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="L59" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="O59" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -7035,47 +7627,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="X59" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="Y59" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>18074</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>133237</v>
+      </c>
+      <c r="C60" t="s">
+        <v>548</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="J60" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="K60" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="L60" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
@@ -7094,50 +7690,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>18074</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>133238</v>
+      </c>
+      <c r="C61" t="s">
+        <v>554</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="J61" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="K61" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="L61" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -7153,56 +7753,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="X61" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="Y61" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>18074</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>133239</v>
+      </c>
+      <c r="C62" t="s">
+        <v>564</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="J62" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="K62" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="L62" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -7224,56 +7828,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="X62" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="Y62" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>18074</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>133240</v>
+      </c>
+      <c r="C63" t="s">
+        <v>573</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="J63" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="K63" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="L63" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="O63" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7295,47 +7903,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="X63" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="Y63" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>18074</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>133241</v>
+      </c>
+      <c r="C64" t="s">
+        <v>580</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="J64" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="K64" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="L64" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -7352,56 +7964,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="X64" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="Y64" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>18074</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>124132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>269</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="J65" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="K65" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="L65" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7423,56 +8039,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="X65" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="Y65" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>18074</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>133242</v>
+      </c>
+      <c r="C66" t="s">
+        <v>598</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="J66" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="K66" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="L66" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="O66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7494,56 +8114,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="X66" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="Y66" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>18074</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>133243</v>
+      </c>
+      <c r="C67" t="s">
+        <v>608</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="J67" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="K67" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="L67" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7565,47 +8189,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="X67" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="Y67" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>18074</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>133244</v>
+      </c>
+      <c r="C68" t="s">
+        <v>617</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="J68" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="K68" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="L68" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
@@ -7632,56 +8260,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="X68" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="Y68" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>18074</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>133245</v>
+      </c>
+      <c r="C69" t="s">
+        <v>626</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="J69" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="K69" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="L69" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="O69" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7703,56 +8335,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="X69" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="Y69" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>18074</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>41264</v>
+      </c>
+      <c r="C70" t="s">
+        <v>634</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>568</v>
+        <v>635</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="J70" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="K70" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="L70" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7774,47 +8410,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="X70" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="Y70" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>18074</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>133246</v>
+      </c>
+      <c r="C71" t="s">
+        <v>644</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="J71" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="K71" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="L71" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
@@ -7841,56 +8481,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="X71" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="Y71" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>18074</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>6841</v>
+      </c>
+      <c r="C72" t="s">
+        <v>653</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="J72" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="K72" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="L72" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -7912,56 +8556,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="X72" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="Y72" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>18074</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>133247</v>
+      </c>
+      <c r="C73" t="s">
+        <v>660</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="J73" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="K73" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="L73" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
       <c r="O73" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7983,56 +8631,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="X73" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
       <c r="Y73" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>18074</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>105890</v>
+      </c>
+      <c r="C74" t="s">
+        <v>670</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="J74" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
       <c r="K74" t="s">
-        <v>603</v>
+        <v>674</v>
       </c>
       <c r="L74" t="s">
-        <v>604</v>
+        <v>675</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
       <c r="O74" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -8054,56 +8706,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
       <c r="X74" t="s">
-        <v>606</v>
+        <v>677</v>
       </c>
       <c r="Y74" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>18074</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>133248</v>
+      </c>
+      <c r="C75" t="s">
+        <v>679</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
       <c r="J75" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="K75" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
       <c r="L75" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
       <c r="O75" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -8123,56 +8779,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="X75" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="Y75" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>18074</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>20812</v>
+      </c>
+      <c r="C76" t="s">
+        <v>689</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>617</v>
+        <v>690</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="J76" t="s">
-        <v>619</v>
+        <v>692</v>
       </c>
       <c r="K76" t="s">
-        <v>620</v>
+        <v>693</v>
       </c>
       <c r="L76" t="s">
-        <v>621</v>
+        <v>694</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
       <c r="O76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -8194,56 +8854,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="X76" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="Y76" t="s">
-        <v>622</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>18074</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>133249</v>
+      </c>
+      <c r="C77" t="s">
+        <v>696</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>623</v>
+        <v>697</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
       <c r="J77" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
       <c r="K77" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="L77" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
       <c r="O77" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -8265,56 +8929,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="X77" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
       <c r="Y77" t="s">
-        <v>631</v>
+        <v>705</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>18074</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>133250</v>
+      </c>
+      <c r="C78" t="s">
+        <v>706</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>633</v>
+        <v>708</v>
       </c>
       <c r="J78" t="s">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="K78" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="L78" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
       <c r="O78" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -8336,56 +9004,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="X78" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
       <c r="Y78" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>18074</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>133251</v>
+      </c>
+      <c r="C79" t="s">
+        <v>713</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
       <c r="J79" t="s">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="K79" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="L79" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
       <c r="O79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -8407,56 +9079,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>643</v>
+        <v>719</v>
       </c>
       <c r="X79" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
       <c r="Y79" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>18074</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>8604</v>
+      </c>
+      <c r="C80" t="s">
+        <v>722</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>646</v>
+        <v>723</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>647</v>
+        <v>724</v>
       </c>
       <c r="J80" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="K80" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="L80" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="O80" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8478,56 +9154,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="X80" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
       <c r="Y80" t="s">
-        <v>654</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>18074</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>133252</v>
+      </c>
+      <c r="C81" t="s">
+        <v>732</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>656</v>
+        <v>734</v>
       </c>
       <c r="J81" t="s">
-        <v>657</v>
+        <v>735</v>
       </c>
       <c r="K81" t="s">
-        <v>658</v>
+        <v>736</v>
       </c>
       <c r="L81" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="O81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -8549,56 +9229,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="X81" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
       <c r="Y81" t="s">
-        <v>661</v>
+        <v>739</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>18074</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>133253</v>
+      </c>
+      <c r="C82" t="s">
+        <v>740</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="J82" t="s">
-        <v>664</v>
+        <v>743</v>
       </c>
       <c r="K82" t="s">
-        <v>665</v>
+        <v>744</v>
       </c>
       <c r="L82" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="O82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8620,56 +9304,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="X82" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="Y82" t="s">
-        <v>669</v>
+        <v>748</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>18074</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>65586</v>
+      </c>
+      <c r="C83" t="s">
+        <v>749</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>670</v>
+        <v>750</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>671</v>
+        <v>751</v>
       </c>
       <c r="J83" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="K83" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
       <c r="L83" t="s">
-        <v>674</v>
+        <v>754</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>675</v>
+        <v>755</v>
       </c>
       <c r="O83" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8691,56 +9379,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>676</v>
+        <v>756</v>
       </c>
       <c r="X83" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
       <c r="Y83" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>18074</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>133254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>759</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>679</v>
+        <v>760</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>680</v>
+        <v>761</v>
       </c>
       <c r="J84" t="s">
-        <v>681</v>
+        <v>762</v>
       </c>
       <c r="K84" t="s">
-        <v>682</v>
+        <v>763</v>
       </c>
       <c r="L84" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="O84" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -8752,47 +9444,51 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>676</v>
+        <v>756</v>
       </c>
       <c r="X84" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
       <c r="Y84" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>18074</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>6189</v>
+      </c>
+      <c r="C85" t="s">
+        <v>767</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>686</v>
+        <v>768</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>687</v>
+        <v>769</v>
       </c>
       <c r="J85" t="s">
-        <v>688</v>
+        <v>770</v>
       </c>
       <c r="K85" t="s">
-        <v>689</v>
+        <v>771</v>
       </c>
       <c r="L85" t="s">
-        <v>690</v>
+        <v>772</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
@@ -8819,56 +9515,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="X85" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="Y85" t="s">
-        <v>693</v>
+        <v>775</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>18074</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>133255</v>
+      </c>
+      <c r="C86" t="s">
+        <v>776</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>694</v>
+        <v>777</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="J86" t="s">
-        <v>696</v>
+        <v>779</v>
       </c>
       <c r="K86" t="s">
-        <v>697</v>
+        <v>780</v>
       </c>
       <c r="L86" t="s">
-        <v>698</v>
+        <v>781</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="O86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P86" t="n">
         <v>2</v>
@@ -8890,47 +9590,51 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="X86" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="Y86" t="s">
-        <v>699</v>
+        <v>782</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>18074</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>133256</v>
+      </c>
+      <c r="C87" t="s">
+        <v>783</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
       <c r="J87" t="s">
-        <v>702</v>
+        <v>786</v>
       </c>
       <c r="K87" t="s">
-        <v>703</v>
+        <v>787</v>
       </c>
       <c r="L87" t="s">
-        <v>704</v>
+        <v>788</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
@@ -8957,56 +9661,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="X87" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="Y87" t="s">
-        <v>705</v>
+        <v>789</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>18074</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>133257</v>
+      </c>
+      <c r="C88" t="s">
+        <v>790</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>707</v>
+        <v>792</v>
       </c>
       <c r="J88" t="s">
-        <v>708</v>
+        <v>793</v>
       </c>
       <c r="K88" t="s">
-        <v>709</v>
+        <v>794</v>
       </c>
       <c r="L88" t="s">
-        <v>710</v>
+        <v>795</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>711</v>
+        <v>796</v>
       </c>
       <c r="O88" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -9028,56 +9736,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="X88" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="Y88" t="s">
-        <v>712</v>
+        <v>797</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>18074</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>74935</v>
+      </c>
+      <c r="C89" t="s">
+        <v>798</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>713</v>
+        <v>799</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>714</v>
+        <v>800</v>
       </c>
       <c r="J89" t="s">
-        <v>715</v>
+        <v>801</v>
       </c>
       <c r="K89" t="s">
-        <v>716</v>
+        <v>802</v>
       </c>
       <c r="L89" t="s">
-        <v>717</v>
+        <v>803</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>718</v>
+        <v>804</v>
       </c>
       <c r="O89" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -9101,50 +9813,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>717</v>
+        <v>803</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>18074</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>118133</v>
+      </c>
+      <c r="C90" t="s">
+        <v>805</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>719</v>
+        <v>806</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>720</v>
+        <v>807</v>
       </c>
       <c r="J90" t="s">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="K90" t="s">
-        <v>722</v>
+        <v>809</v>
       </c>
       <c r="L90" t="s">
-        <v>723</v>
+        <v>810</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>718</v>
+        <v>804</v>
       </c>
       <c r="O90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -9168,50 +9884,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>723</v>
+        <v>810</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>18074</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>133258</v>
+      </c>
+      <c r="C91" t="s">
+        <v>811</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="J91" t="s">
-        <v>726</v>
+        <v>814</v>
       </c>
       <c r="K91" t="s">
-        <v>727</v>
+        <v>815</v>
       </c>
       <c r="L91" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>718</v>
+        <v>804</v>
       </c>
       <c r="O91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9235,50 +9955,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>18074</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>42687</v>
+      </c>
+      <c r="C92" t="s">
+        <v>817</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>729</v>
+        <v>818</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="J92" t="s">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="K92" t="s">
-        <v>732</v>
+        <v>821</v>
       </c>
       <c r="L92" t="s">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>734</v>
+        <v>823</v>
       </c>
       <c r="O92" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -9302,50 +10026,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>733</v>
+        <v>822</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>18074</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>133259</v>
+      </c>
+      <c r="C93" t="s">
+        <v>824</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>735</v>
+        <v>825</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>736</v>
+        <v>826</v>
       </c>
       <c r="J93" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="K93" t="s">
-        <v>738</v>
+        <v>828</v>
       </c>
       <c r="L93" t="s">
-        <v>739</v>
+        <v>829</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
       <c r="O93" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -9369,50 +10097,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>18074</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>133260</v>
+      </c>
+      <c r="C94" t="s">
+        <v>832</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>742</v>
+        <v>833</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>743</v>
+        <v>834</v>
       </c>
       <c r="J94" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="K94" t="s">
-        <v>744</v>
+        <v>835</v>
       </c>
       <c r="L94" t="s">
-        <v>745</v>
+        <v>836</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
       <c r="O94" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9436,50 +10168,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>746</v>
+        <v>837</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>18074</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>133261</v>
+      </c>
+      <c r="C95" t="s">
+        <v>838</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>747</v>
+        <v>839</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="J95" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="K95" t="s">
-        <v>750</v>
+        <v>842</v>
       </c>
       <c r="L95" t="s">
-        <v>751</v>
+        <v>843</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>752</v>
+        <v>844</v>
       </c>
       <c r="O95" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9501,56 +10237,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>753</v>
+        <v>845</v>
       </c>
       <c r="X95" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
       <c r="Y95" t="s">
-        <v>755</v>
+        <v>847</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>18074</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>133262</v>
+      </c>
+      <c r="C96" t="s">
+        <v>848</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>756</v>
+        <v>849</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>757</v>
+        <v>850</v>
       </c>
       <c r="J96" t="s">
-        <v>758</v>
+        <v>851</v>
       </c>
       <c r="K96" t="s">
-        <v>759</v>
+        <v>852</v>
       </c>
       <c r="L96" t="s">
-        <v>760</v>
+        <v>853</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>761</v>
+        <v>854</v>
       </c>
       <c r="O96" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -9572,56 +10312,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>762</v>
+        <v>855</v>
       </c>
       <c r="X96" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
       <c r="Y96" t="s">
-        <v>763</v>
+        <v>856</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>18074</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>82561</v>
+      </c>
+      <c r="C97" t="s">
+        <v>857</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>764</v>
+        <v>858</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>765</v>
+        <v>859</v>
       </c>
       <c r="J97" t="s">
-        <v>766</v>
+        <v>860</v>
       </c>
       <c r="K97" t="s">
-        <v>767</v>
+        <v>861</v>
       </c>
       <c r="L97" t="s">
-        <v>768</v>
+        <v>862</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>761</v>
+        <v>854</v>
       </c>
       <c r="O97" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9643,56 +10387,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>762</v>
+        <v>855</v>
       </c>
       <c r="X97" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
       <c r="Y97" t="s">
-        <v>769</v>
+        <v>863</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>18074</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>118002</v>
+      </c>
+      <c r="C98" t="s">
+        <v>864</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>770</v>
+        <v>865</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>771</v>
+        <v>866</v>
       </c>
       <c r="J98" t="s">
-        <v>772</v>
+        <v>867</v>
       </c>
       <c r="K98" t="s">
-        <v>773</v>
+        <v>868</v>
       </c>
       <c r="L98" t="s">
-        <v>774</v>
+        <v>869</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>775</v>
+        <v>870</v>
       </c>
       <c r="O98" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -9714,47 +10462,51 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>776</v>
+        <v>871</v>
       </c>
       <c r="X98" t="s">
-        <v>777</v>
+        <v>872</v>
       </c>
       <c r="Y98" t="s">
-        <v>778</v>
+        <v>873</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>18074</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C99" t="s">
+        <v>874</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>780</v>
+        <v>876</v>
       </c>
       <c r="J99" t="s">
-        <v>781</v>
+        <v>877</v>
       </c>
       <c r="K99" t="s">
-        <v>782</v>
+        <v>878</v>
       </c>
       <c r="L99" t="s">
-        <v>783</v>
+        <v>879</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
@@ -9781,56 +10533,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>784</v>
+        <v>880</v>
       </c>
       <c r="X99" t="s">
-        <v>785</v>
+        <v>881</v>
       </c>
       <c r="Y99" t="s">
-        <v>786</v>
+        <v>882</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>18074</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>41512</v>
+      </c>
+      <c r="C100" t="s">
+        <v>883</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>787</v>
+        <v>884</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>788</v>
+        <v>885</v>
       </c>
       <c r="J100" t="s">
-        <v>789</v>
+        <v>886</v>
       </c>
       <c r="K100" t="s">
-        <v>790</v>
+        <v>887</v>
       </c>
       <c r="L100" t="s">
-        <v>791</v>
+        <v>888</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>792</v>
+        <v>889</v>
       </c>
       <c r="O100" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9852,47 +10608,51 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>793</v>
+        <v>890</v>
       </c>
       <c r="X100" t="s">
-        <v>794</v>
+        <v>891</v>
       </c>
       <c r="Y100" t="s">
-        <v>795</v>
+        <v>892</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>18074</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>133263</v>
+      </c>
+      <c r="C101" t="s">
+        <v>893</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>796</v>
+        <v>894</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>797</v>
+        <v>895</v>
       </c>
       <c r="J101" t="s">
-        <v>798</v>
+        <v>896</v>
       </c>
       <c r="K101" t="s">
-        <v>799</v>
+        <v>897</v>
       </c>
       <c r="L101" t="s">
-        <v>800</v>
+        <v>898</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
@@ -9921,50 +10681,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>800</v>
+        <v>898</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>18074</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>133264</v>
+      </c>
+      <c r="C102" t="s">
+        <v>899</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>801</v>
+        <v>900</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>802</v>
+        <v>901</v>
       </c>
       <c r="J102" t="s">
-        <v>803</v>
+        <v>902</v>
       </c>
       <c r="K102" t="s">
-        <v>804</v>
+        <v>903</v>
       </c>
       <c r="L102" t="s">
-        <v>805</v>
+        <v>904</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>806</v>
+        <v>905</v>
       </c>
       <c r="O102" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9988,50 +10752,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>807</v>
+        <v>906</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>18074</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>133265</v>
+      </c>
+      <c r="C103" t="s">
+        <v>907</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>808</v>
+        <v>908</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>809</v>
+        <v>909</v>
       </c>
       <c r="J103" t="s">
-        <v>810</v>
+        <v>910</v>
       </c>
       <c r="K103" t="s">
-        <v>811</v>
+        <v>911</v>
       </c>
       <c r="L103" t="s">
-        <v>812</v>
+        <v>912</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>813</v>
+        <v>913</v>
       </c>
       <c r="O103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -10055,50 +10823,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>814</v>
+        <v>914</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>18074</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>133266</v>
+      </c>
+      <c r="C104" t="s">
+        <v>915</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>815</v>
+        <v>916</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>816</v>
+        <v>917</v>
       </c>
       <c r="J104" t="s">
-        <v>817</v>
+        <v>918</v>
       </c>
       <c r="K104" t="s">
-        <v>818</v>
+        <v>919</v>
       </c>
       <c r="L104" t="s">
-        <v>819</v>
+        <v>920</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>820</v>
+        <v>921</v>
       </c>
       <c r="O104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P104" t="n">
         <v>1</v>
@@ -10122,50 +10894,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>819</v>
+        <v>920</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>18074</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>133267</v>
+      </c>
+      <c r="C105" t="s">
+        <v>922</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>821</v>
+        <v>923</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>822</v>
+        <v>924</v>
       </c>
       <c r="J105" t="s">
-        <v>823</v>
+        <v>925</v>
       </c>
       <c r="K105" t="s">
-        <v>824</v>
+        <v>926</v>
       </c>
       <c r="L105" t="s">
-        <v>825</v>
+        <v>927</v>
       </c>
       <c r="M105" t="n">
         <v>2</v>
       </c>
       <c r="N105" t="s">
-        <v>820</v>
+        <v>921</v>
       </c>
       <c r="O105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P105" t="n">
         <v>1</v>
@@ -10187,56 +10963,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>826</v>
+        <v>928</v>
       </c>
       <c r="X105" t="s">
-        <v>827</v>
+        <v>929</v>
       </c>
       <c r="Y105" t="s">
-        <v>828</v>
+        <v>930</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>18074</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>133268</v>
+      </c>
+      <c r="C106" t="s">
+        <v>931</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>829</v>
+        <v>932</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>830</v>
+        <v>933</v>
       </c>
       <c r="J106" t="s">
-        <v>831</v>
+        <v>934</v>
       </c>
       <c r="K106" t="s">
-        <v>832</v>
+        <v>935</v>
       </c>
       <c r="L106" t="s">
-        <v>833</v>
+        <v>936</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>820</v>
+        <v>921</v>
       </c>
       <c r="O106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -10260,50 +11040,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>834</v>
+        <v>937</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>18074</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>133269</v>
+      </c>
+      <c r="C107" t="s">
+        <v>938</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>835</v>
+        <v>939</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>836</v>
+        <v>940</v>
       </c>
       <c r="J107" t="s">
-        <v>837</v>
+        <v>941</v>
       </c>
       <c r="K107" t="s">
-        <v>838</v>
+        <v>942</v>
       </c>
       <c r="L107" t="s">
-        <v>839</v>
+        <v>943</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>840</v>
+        <v>944</v>
       </c>
       <c r="O107" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10323,50 +11107,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>839</v>
+        <v>943</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>18074</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>133270</v>
+      </c>
+      <c r="C108" t="s">
+        <v>945</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>841</v>
+        <v>946</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>842</v>
+        <v>947</v>
       </c>
       <c r="J108" t="s">
-        <v>843</v>
+        <v>948</v>
       </c>
       <c r="K108" t="s">
-        <v>844</v>
+        <v>949</v>
       </c>
       <c r="L108" t="s">
-        <v>845</v>
+        <v>950</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>840</v>
+        <v>944</v>
       </c>
       <c r="O108" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10386,50 +11174,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>846</v>
+        <v>951</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>18074</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>133271</v>
+      </c>
+      <c r="C109" t="s">
+        <v>952</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>847</v>
+        <v>953</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>848</v>
+        <v>954</v>
       </c>
       <c r="J109" t="s">
-        <v>849</v>
+        <v>955</v>
       </c>
       <c r="K109" t="s">
-        <v>850</v>
+        <v>956</v>
       </c>
       <c r="L109" t="s">
-        <v>851</v>
+        <v>957</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
       </c>
       <c r="N109" t="s">
-        <v>840</v>
+        <v>944</v>
       </c>
       <c r="O109" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P109" t="n">
         <v>3</v>
@@ -10449,50 +11241,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>851</v>
+        <v>957</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>18074</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>133272</v>
+      </c>
+      <c r="C110" t="s">
+        <v>958</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>852</v>
+        <v>959</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>853</v>
+        <v>960</v>
       </c>
       <c r="J110" t="s">
-        <v>854</v>
+        <v>961</v>
       </c>
       <c r="K110" t="s">
-        <v>855</v>
+        <v>962</v>
       </c>
       <c r="L110" t="s">
-        <v>856</v>
+        <v>963</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>857</v>
+        <v>964</v>
       </c>
       <c r="O110" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -10516,50 +11312,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>858</v>
+        <v>965</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>18074</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>133273</v>
+      </c>
+      <c r="C111" t="s">
+        <v>966</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>859</v>
+        <v>967</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>860</v>
+        <v>968</v>
       </c>
       <c r="J111" t="s">
-        <v>861</v>
+        <v>969</v>
       </c>
       <c r="K111" t="s">
-        <v>862</v>
+        <v>970</v>
       </c>
       <c r="L111" t="s">
-        <v>863</v>
+        <v>971</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
       </c>
       <c r="N111" t="s">
-        <v>864</v>
+        <v>972</v>
       </c>
       <c r="O111" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="P111" t="n">
         <v>4</v>
@@ -10583,50 +11383,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>865</v>
+        <v>973</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>18074</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>133274</v>
+      </c>
+      <c r="C112" t="s">
+        <v>974</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>866</v>
+        <v>975</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>867</v>
+        <v>976</v>
       </c>
       <c r="J112" t="s">
-        <v>868</v>
+        <v>977</v>
       </c>
       <c r="K112" t="s">
-        <v>869</v>
+        <v>978</v>
       </c>
       <c r="L112" t="s">
-        <v>870</v>
+        <v>979</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>871</v>
+        <v>980</v>
       </c>
       <c r="O112" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P112" t="n">
         <v>4</v>
@@ -10650,50 +11454,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>870</v>
+        <v>979</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>18074</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>133275</v>
+      </c>
+      <c r="C113" t="s">
+        <v>981</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>872</v>
+        <v>982</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>873</v>
+        <v>983</v>
       </c>
       <c r="J113" t="s">
-        <v>874</v>
+        <v>984</v>
       </c>
       <c r="K113" t="s">
-        <v>875</v>
+        <v>985</v>
       </c>
       <c r="L113" t="s">
-        <v>876</v>
+        <v>986</v>
       </c>
       <c r="M113" t="n">
         <v>4</v>
       </c>
       <c r="N113" t="s">
-        <v>877</v>
+        <v>987</v>
       </c>
       <c r="O113" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P113" t="n">
         <v>4</v>
@@ -10717,50 +11525,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>876</v>
+        <v>986</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>18074</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>133276</v>
+      </c>
+      <c r="C114" t="s">
+        <v>988</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>878</v>
+        <v>989</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>879</v>
+        <v>990</v>
       </c>
       <c r="J114" t="s">
-        <v>880</v>
+        <v>991</v>
       </c>
       <c r="K114" t="s">
-        <v>881</v>
+        <v>992</v>
       </c>
       <c r="L114" t="s">
-        <v>882</v>
+        <v>993</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>883</v>
+        <v>994</v>
       </c>
       <c r="O114" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -10784,50 +11596,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>882</v>
+        <v>993</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>18074</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>37841</v>
+      </c>
+      <c r="C115" t="s">
+        <v>995</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>884</v>
+        <v>996</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>885</v>
+        <v>997</v>
       </c>
       <c r="J115" t="s">
-        <v>886</v>
+        <v>998</v>
       </c>
       <c r="K115" t="s">
-        <v>887</v>
+        <v>999</v>
       </c>
       <c r="L115" t="s">
-        <v>888</v>
+        <v>1000</v>
       </c>
       <c r="M115" t="n">
         <v>3</v>
       </c>
       <c r="N115" t="s">
-        <v>889</v>
+        <v>1001</v>
       </c>
       <c r="O115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P115" t="n">
         <v>3</v>
@@ -10851,41 +11667,45 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>890</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>18074</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>133277</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1003</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>891</v>
+        <v>1004</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>892</v>
+        <v>1005</v>
       </c>
       <c r="J116" t="s">
-        <v>893</v>
+        <v>1006</v>
       </c>
       <c r="K116" t="s">
-        <v>894</v>
+        <v>1007</v>
       </c>
       <c r="L116" t="s">
-        <v>895</v>
+        <v>1008</v>
       </c>
       <c r="M116" t="n">
         <v>4</v>
@@ -10914,50 +11734,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>896</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>18074</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>133278</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1010</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>897</v>
+        <v>1011</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>898</v>
+        <v>1012</v>
       </c>
       <c r="J117" t="s">
-        <v>899</v>
+        <v>1013</v>
       </c>
       <c r="K117" t="s">
-        <v>900</v>
+        <v>1014</v>
       </c>
       <c r="L117" t="s">
-        <v>901</v>
+        <v>1015</v>
       </c>
       <c r="M117" t="n">
         <v>3</v>
       </c>
       <c r="N117" t="s">
-        <v>902</v>
+        <v>1016</v>
       </c>
       <c r="O117" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P117" t="n">
         <v>3</v>
@@ -10981,50 +11805,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>901</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>18074</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>133279</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1017</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>903</v>
+        <v>1018</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>904</v>
+        <v>1019</v>
       </c>
       <c r="J118" t="s">
-        <v>905</v>
+        <v>1020</v>
       </c>
       <c r="K118" t="s">
-        <v>906</v>
+        <v>1021</v>
       </c>
       <c r="L118" t="s">
-        <v>907</v>
+        <v>1022</v>
       </c>
       <c r="M118" t="n">
         <v>4</v>
       </c>
       <c r="N118" t="s">
-        <v>908</v>
+        <v>1023</v>
       </c>
       <c r="O118" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="P118" t="n">
         <v>5</v>
@@ -11046,50 +11874,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>907</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>18074</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>15253</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1024</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>909</v>
+        <v>1025</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>910</v>
+        <v>1026</v>
       </c>
       <c r="J119" t="s">
-        <v>911</v>
+        <v>1027</v>
       </c>
       <c r="K119" t="s">
-        <v>912</v>
+        <v>1028</v>
       </c>
       <c r="L119" t="s">
-        <v>913</v>
+        <v>1029</v>
       </c>
       <c r="M119" t="n">
         <v>2</v>
       </c>
       <c r="N119" t="s">
-        <v>914</v>
+        <v>1030</v>
       </c>
       <c r="O119" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P119" t="n">
         <v>3</v>
@@ -11113,50 +11945,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>915</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>18074</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>133280</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1032</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>916</v>
+        <v>1033</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>917</v>
+        <v>1034</v>
       </c>
       <c r="J120" t="s">
-        <v>918</v>
+        <v>1035</v>
       </c>
       <c r="K120" t="s">
-        <v>919</v>
+        <v>1036</v>
       </c>
       <c r="L120" t="s">
-        <v>920</v>
+        <v>1037</v>
       </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
       <c r="N120" t="s">
-        <v>921</v>
+        <v>1038</v>
       </c>
       <c r="O120" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P120" t="n">
         <v>1</v>
@@ -11180,41 +12016,45 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>922</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>18074</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>133281</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1040</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>923</v>
+        <v>1041</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>924</v>
+        <v>1042</v>
       </c>
       <c r="J121" t="s">
-        <v>925</v>
+        <v>1043</v>
       </c>
       <c r="K121" t="s">
-        <v>926</v>
+        <v>1044</v>
       </c>
       <c r="L121" t="s">
-        <v>927</v>
+        <v>1045</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
@@ -11233,41 +12073,45 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>928</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>18074</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>133282</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1047</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>929</v>
+        <v>1048</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>930</v>
+        <v>1049</v>
       </c>
       <c r="J122" t="s">
-        <v>931</v>
+        <v>1050</v>
       </c>
       <c r="K122" t="s">
-        <v>932</v>
+        <v>1051</v>
       </c>
       <c r="L122" t="s">
-        <v>933</v>
+        <v>1052</v>
       </c>
       <c r="M122" t="n">
         <v>3</v>
@@ -11294,50 +12138,54 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>934</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>18074</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1054</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>935</v>
+        <v>1055</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>936</v>
+        <v>1056</v>
       </c>
       <c r="J123" t="s">
-        <v>937</v>
+        <v>1057</v>
       </c>
       <c r="K123" t="s">
-        <v>938</v>
+        <v>1058</v>
       </c>
       <c r="L123" t="s">
-        <v>939</v>
+        <v>1059</v>
       </c>
       <c r="M123" t="n">
         <v>4</v>
       </c>
       <c r="N123" t="s">
-        <v>940</v>
+        <v>1060</v>
       </c>
       <c r="O123" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P123" t="n">
         <v>5</v>
@@ -11359,7 +12207,7 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>941</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_163.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_163.xlsx
@@ -3816,7 +3816,7 @@
         <v>18074</v>
       </c>
       <c r="B3" t="n">
-        <v>133195</v>
+        <v>164019</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -3877,7 +3877,7 @@
         <v>18074</v>
       </c>
       <c r="B4" t="n">
-        <v>133196</v>
+        <v>164020</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -3938,7 +3938,7 @@
         <v>18074</v>
       </c>
       <c r="B5" t="n">
-        <v>133197</v>
+        <v>164021</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -4003,7 +4003,7 @@
         <v>18074</v>
       </c>
       <c r="B6" t="n">
-        <v>133198</v>
+        <v>164022</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -4064,7 +4064,7 @@
         <v>18074</v>
       </c>
       <c r="B7" t="n">
-        <v>133199</v>
+        <v>164023</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
@@ -4131,7 +4131,7 @@
         <v>18074</v>
       </c>
       <c r="B8" t="n">
-        <v>133200</v>
+        <v>164024</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -4253,7 +4253,7 @@
         <v>18074</v>
       </c>
       <c r="B10" t="n">
-        <v>133201</v>
+        <v>164025</v>
       </c>
       <c r="C10" t="s">
         <v>107</v>
@@ -4320,7 +4320,7 @@
         <v>18074</v>
       </c>
       <c r="B11" t="n">
-        <v>133202</v>
+        <v>164026</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -4381,7 +4381,7 @@
         <v>18074</v>
       </c>
       <c r="B12" t="n">
-        <v>133203</v>
+        <v>164027</v>
       </c>
       <c r="C12" t="s">
         <v>121</v>
@@ -4452,7 +4452,7 @@
         <v>18074</v>
       </c>
       <c r="B13" t="n">
-        <v>133204</v>
+        <v>164028</v>
       </c>
       <c r="C13" t="s">
         <v>132</v>
@@ -4523,7 +4523,7 @@
         <v>18074</v>
       </c>
       <c r="B14" t="n">
-        <v>133205</v>
+        <v>164029</v>
       </c>
       <c r="C14" t="s">
         <v>141</v>
@@ -4592,7 +4592,7 @@
         <v>18074</v>
       </c>
       <c r="B15" t="n">
-        <v>133206</v>
+        <v>164030</v>
       </c>
       <c r="C15" t="s">
         <v>151</v>
@@ -4663,7 +4663,7 @@
         <v>18074</v>
       </c>
       <c r="B16" t="n">
-        <v>133207</v>
+        <v>133202</v>
       </c>
       <c r="C16" t="s">
         <v>159</v>
@@ -4734,7 +4734,7 @@
         <v>18074</v>
       </c>
       <c r="B17" t="n">
-        <v>133208</v>
+        <v>164031</v>
       </c>
       <c r="C17" t="s">
         <v>169</v>
@@ -4931,7 +4931,7 @@
         <v>18074</v>
       </c>
       <c r="B20" t="n">
-        <v>133209</v>
+        <v>164032</v>
       </c>
       <c r="C20" t="s">
         <v>198</v>
@@ -5000,7 +5000,7 @@
         <v>18074</v>
       </c>
       <c r="B21" t="n">
-        <v>133210</v>
+        <v>164033</v>
       </c>
       <c r="C21" t="s">
         <v>208</v>
@@ -5130,7 +5130,7 @@
         <v>18074</v>
       </c>
       <c r="B23" t="n">
-        <v>133211</v>
+        <v>164034</v>
       </c>
       <c r="C23" t="s">
         <v>224</v>
@@ -5333,7 +5333,7 @@
         <v>18074</v>
       </c>
       <c r="B26" t="n">
-        <v>133212</v>
+        <v>164035</v>
       </c>
       <c r="C26" t="s">
         <v>249</v>
@@ -5404,7 +5404,7 @@
         <v>18074</v>
       </c>
       <c r="B27" t="n">
-        <v>133213</v>
+        <v>164036</v>
       </c>
       <c r="C27" t="s">
         <v>259</v>
@@ -5540,7 +5540,7 @@
         <v>18074</v>
       </c>
       <c r="B29" t="n">
-        <v>133214</v>
+        <v>164037</v>
       </c>
       <c r="C29" t="s">
         <v>279</v>
@@ -5611,7 +5611,7 @@
         <v>18074</v>
       </c>
       <c r="B30" t="n">
-        <v>133215</v>
+        <v>164038</v>
       </c>
       <c r="C30" t="s">
         <v>288</v>
@@ -5682,7 +5682,7 @@
         <v>18074</v>
       </c>
       <c r="B31" t="n">
-        <v>133206</v>
+        <v>133202</v>
       </c>
       <c r="C31" t="s">
         <v>159</v>
@@ -5822,7 +5822,7 @@
         <v>18074</v>
       </c>
       <c r="B33" t="n">
-        <v>133216</v>
+        <v>164039</v>
       </c>
       <c r="C33" t="s">
         <v>314</v>
@@ -5887,7 +5887,7 @@
         <v>18074</v>
       </c>
       <c r="B34" t="n">
-        <v>133217</v>
+        <v>164040</v>
       </c>
       <c r="C34" t="s">
         <v>323</v>
@@ -5948,7 +5948,7 @@
         <v>18074</v>
       </c>
       <c r="B35" t="n">
-        <v>133218</v>
+        <v>164041</v>
       </c>
       <c r="C35" t="s">
         <v>332</v>
@@ -6013,7 +6013,7 @@
         <v>18074</v>
       </c>
       <c r="B36" t="n">
-        <v>133219</v>
+        <v>164042</v>
       </c>
       <c r="C36" t="s">
         <v>343</v>
@@ -6078,7 +6078,7 @@
         <v>18074</v>
       </c>
       <c r="B37" t="n">
-        <v>133220</v>
+        <v>164043</v>
       </c>
       <c r="C37" t="s">
         <v>353</v>
@@ -6143,7 +6143,7 @@
         <v>18074</v>
       </c>
       <c r="B38" t="n">
-        <v>133221</v>
+        <v>164044</v>
       </c>
       <c r="C38" t="s">
         <v>363</v>
@@ -6214,7 +6214,7 @@
         <v>18074</v>
       </c>
       <c r="B39" t="n">
-        <v>133222</v>
+        <v>164045</v>
       </c>
       <c r="C39" t="s">
         <v>373</v>
@@ -6350,7 +6350,7 @@
         <v>18074</v>
       </c>
       <c r="B41" t="n">
-        <v>133223</v>
+        <v>164046</v>
       </c>
       <c r="C41" t="s">
         <v>393</v>
@@ -6486,7 +6486,7 @@
         <v>18074</v>
       </c>
       <c r="B43" t="n">
-        <v>133224</v>
+        <v>164047</v>
       </c>
       <c r="C43" t="s">
         <v>412</v>
@@ -6551,7 +6551,7 @@
         <v>18074</v>
       </c>
       <c r="B44" t="n">
-        <v>133225</v>
+        <v>164048</v>
       </c>
       <c r="C44" t="s">
         <v>418</v>
@@ -6618,7 +6618,7 @@
         <v>18074</v>
       </c>
       <c r="B45" t="n">
-        <v>133226</v>
+        <v>164049</v>
       </c>
       <c r="C45" t="s">
         <v>425</v>
@@ -6752,7 +6752,7 @@
         <v>18074</v>
       </c>
       <c r="B47" t="n">
-        <v>133227</v>
+        <v>164050</v>
       </c>
       <c r="C47" t="s">
         <v>444</v>
@@ -6813,7 +6813,7 @@
         <v>18074</v>
       </c>
       <c r="B48" t="n">
-        <v>133228</v>
+        <v>164051</v>
       </c>
       <c r="C48" t="s">
         <v>452</v>
@@ -6880,7 +6880,7 @@
         <v>18074</v>
       </c>
       <c r="B49" t="n">
-        <v>133229</v>
+        <v>164052</v>
       </c>
       <c r="C49" t="s">
         <v>458</v>
@@ -6951,7 +6951,7 @@
         <v>18074</v>
       </c>
       <c r="B50" t="n">
-        <v>133230</v>
+        <v>164053</v>
       </c>
       <c r="C50" t="s">
         <v>467</v>
@@ -7089,7 +7089,7 @@
         <v>18074</v>
       </c>
       <c r="B52" t="n">
-        <v>133231</v>
+        <v>148524</v>
       </c>
       <c r="C52" t="s">
         <v>482</v>
@@ -7225,7 +7225,7 @@
         <v>18074</v>
       </c>
       <c r="B54" t="n">
-        <v>133232</v>
+        <v>164054</v>
       </c>
       <c r="C54" t="s">
         <v>495</v>
@@ -7290,7 +7290,7 @@
         <v>18074</v>
       </c>
       <c r="B55" t="n">
-        <v>133233</v>
+        <v>164055</v>
       </c>
       <c r="C55" t="s">
         <v>502</v>
@@ -7361,7 +7361,7 @@
         <v>18074</v>
       </c>
       <c r="B56" t="n">
-        <v>133234</v>
+        <v>164056</v>
       </c>
       <c r="C56" t="s">
         <v>511</v>
@@ -7430,7 +7430,7 @@
         <v>18074</v>
       </c>
       <c r="B57" t="n">
-        <v>133235</v>
+        <v>164057</v>
       </c>
       <c r="C57" t="s">
         <v>519</v>
@@ -7570,7 +7570,7 @@
         <v>18074</v>
       </c>
       <c r="B59" t="n">
-        <v>133236</v>
+        <v>164058</v>
       </c>
       <c r="C59" t="s">
         <v>539</v>
@@ -7641,7 +7641,7 @@
         <v>18074</v>
       </c>
       <c r="B60" t="n">
-        <v>133237</v>
+        <v>164059</v>
       </c>
       <c r="C60" t="s">
         <v>548</v>
@@ -7698,7 +7698,7 @@
         <v>18074</v>
       </c>
       <c r="B61" t="n">
-        <v>133238</v>
+        <v>164060</v>
       </c>
       <c r="C61" t="s">
         <v>554</v>
@@ -7767,7 +7767,7 @@
         <v>18074</v>
       </c>
       <c r="B62" t="n">
-        <v>133239</v>
+        <v>164061</v>
       </c>
       <c r="C62" t="s">
         <v>564</v>
@@ -7842,7 +7842,7 @@
         <v>18074</v>
       </c>
       <c r="B63" t="n">
-        <v>133240</v>
+        <v>164062</v>
       </c>
       <c r="C63" t="s">
         <v>573</v>
@@ -7917,7 +7917,7 @@
         <v>18074</v>
       </c>
       <c r="B64" t="n">
-        <v>133241</v>
+        <v>164063</v>
       </c>
       <c r="C64" t="s">
         <v>580</v>
@@ -8053,7 +8053,7 @@
         <v>18074</v>
       </c>
       <c r="B66" t="n">
-        <v>133242</v>
+        <v>164064</v>
       </c>
       <c r="C66" t="s">
         <v>598</v>
@@ -8128,7 +8128,7 @@
         <v>18074</v>
       </c>
       <c r="B67" t="n">
-        <v>133243</v>
+        <v>164065</v>
       </c>
       <c r="C67" t="s">
         <v>608</v>
@@ -8203,7 +8203,7 @@
         <v>18074</v>
       </c>
       <c r="B68" t="n">
-        <v>133244</v>
+        <v>164066</v>
       </c>
       <c r="C68" t="s">
         <v>617</v>
@@ -8274,7 +8274,7 @@
         <v>18074</v>
       </c>
       <c r="B69" t="n">
-        <v>133245</v>
+        <v>164067</v>
       </c>
       <c r="C69" t="s">
         <v>626</v>
@@ -8424,7 +8424,7 @@
         <v>18074</v>
       </c>
       <c r="B71" t="n">
-        <v>133246</v>
+        <v>164068</v>
       </c>
       <c r="C71" t="s">
         <v>644</v>
@@ -8570,7 +8570,7 @@
         <v>18074</v>
       </c>
       <c r="B73" t="n">
-        <v>133247</v>
+        <v>164069</v>
       </c>
       <c r="C73" t="s">
         <v>660</v>
@@ -8720,7 +8720,7 @@
         <v>18074</v>
       </c>
       <c r="B75" t="n">
-        <v>133248</v>
+        <v>164070</v>
       </c>
       <c r="C75" t="s">
         <v>679</v>
@@ -8868,7 +8868,7 @@
         <v>18074</v>
       </c>
       <c r="B77" t="n">
-        <v>133249</v>
+        <v>164071</v>
       </c>
       <c r="C77" t="s">
         <v>696</v>
@@ -8943,7 +8943,7 @@
         <v>18074</v>
       </c>
       <c r="B78" t="n">
-        <v>133250</v>
+        <v>164072</v>
       </c>
       <c r="C78" t="s">
         <v>706</v>
@@ -9018,7 +9018,7 @@
         <v>18074</v>
       </c>
       <c r="B79" t="n">
-        <v>133251</v>
+        <v>164073</v>
       </c>
       <c r="C79" t="s">
         <v>713</v>
@@ -9168,7 +9168,7 @@
         <v>18074</v>
       </c>
       <c r="B81" t="n">
-        <v>133252</v>
+        <v>164074</v>
       </c>
       <c r="C81" t="s">
         <v>732</v>
@@ -9243,7 +9243,7 @@
         <v>18074</v>
       </c>
       <c r="B82" t="n">
-        <v>133253</v>
+        <v>164075</v>
       </c>
       <c r="C82" t="s">
         <v>740</v>
@@ -9393,7 +9393,7 @@
         <v>18074</v>
       </c>
       <c r="B84" t="n">
-        <v>133254</v>
+        <v>164076</v>
       </c>
       <c r="C84" t="s">
         <v>759</v>
@@ -9529,7 +9529,7 @@
         <v>18074</v>
       </c>
       <c r="B86" t="n">
-        <v>133255</v>
+        <v>164077</v>
       </c>
       <c r="C86" t="s">
         <v>776</v>
@@ -9604,7 +9604,7 @@
         <v>18074</v>
       </c>
       <c r="B87" t="n">
-        <v>133256</v>
+        <v>164078</v>
       </c>
       <c r="C87" t="s">
         <v>783</v>
@@ -9675,7 +9675,7 @@
         <v>18074</v>
       </c>
       <c r="B88" t="n">
-        <v>133257</v>
+        <v>164079</v>
       </c>
       <c r="C88" t="s">
         <v>790</v>
@@ -9892,7 +9892,7 @@
         <v>18074</v>
       </c>
       <c r="B91" t="n">
-        <v>133258</v>
+        <v>164080</v>
       </c>
       <c r="C91" t="s">
         <v>811</v>
@@ -10034,7 +10034,7 @@
         <v>18074</v>
       </c>
       <c r="B93" t="n">
-        <v>133259</v>
+        <v>164081</v>
       </c>
       <c r="C93" t="s">
         <v>824</v>
@@ -10105,7 +10105,7 @@
         <v>18074</v>
       </c>
       <c r="B94" t="n">
-        <v>133260</v>
+        <v>164082</v>
       </c>
       <c r="C94" t="s">
         <v>832</v>
@@ -10176,7 +10176,7 @@
         <v>18074</v>
       </c>
       <c r="B95" t="n">
-        <v>133261</v>
+        <v>164083</v>
       </c>
       <c r="C95" t="s">
         <v>838</v>
@@ -10251,7 +10251,7 @@
         <v>18074</v>
       </c>
       <c r="B96" t="n">
-        <v>133262</v>
+        <v>164084</v>
       </c>
       <c r="C96" t="s">
         <v>848</v>
@@ -10622,7 +10622,7 @@
         <v>18074</v>
       </c>
       <c r="B101" t="n">
-        <v>133263</v>
+        <v>164085</v>
       </c>
       <c r="C101" t="s">
         <v>893</v>
@@ -10689,7 +10689,7 @@
         <v>18074</v>
       </c>
       <c r="B102" t="n">
-        <v>133264</v>
+        <v>164086</v>
       </c>
       <c r="C102" t="s">
         <v>899</v>
@@ -10760,7 +10760,7 @@
         <v>18074</v>
       </c>
       <c r="B103" t="n">
-        <v>133265</v>
+        <v>164087</v>
       </c>
       <c r="C103" t="s">
         <v>907</v>
@@ -10831,7 +10831,7 @@
         <v>18074</v>
       </c>
       <c r="B104" t="n">
-        <v>133266</v>
+        <v>164088</v>
       </c>
       <c r="C104" t="s">
         <v>915</v>
@@ -10902,7 +10902,7 @@
         <v>18074</v>
       </c>
       <c r="B105" t="n">
-        <v>133267</v>
+        <v>164089</v>
       </c>
       <c r="C105" t="s">
         <v>922</v>
@@ -10977,7 +10977,7 @@
         <v>18074</v>
       </c>
       <c r="B106" t="n">
-        <v>133268</v>
+        <v>164090</v>
       </c>
       <c r="C106" t="s">
         <v>931</v>
@@ -11048,7 +11048,7 @@
         <v>18074</v>
       </c>
       <c r="B107" t="n">
-        <v>133269</v>
+        <v>164091</v>
       </c>
       <c r="C107" t="s">
         <v>938</v>
@@ -11115,7 +11115,7 @@
         <v>18074</v>
       </c>
       <c r="B108" t="n">
-        <v>133270</v>
+        <v>164092</v>
       </c>
       <c r="C108" t="s">
         <v>945</v>
@@ -11182,7 +11182,7 @@
         <v>18074</v>
       </c>
       <c r="B109" t="n">
-        <v>133271</v>
+        <v>164093</v>
       </c>
       <c r="C109" t="s">
         <v>952</v>
@@ -11249,7 +11249,7 @@
         <v>18074</v>
       </c>
       <c r="B110" t="n">
-        <v>133272</v>
+        <v>164094</v>
       </c>
       <c r="C110" t="s">
         <v>958</v>
@@ -11320,7 +11320,7 @@
         <v>18074</v>
       </c>
       <c r="B111" t="n">
-        <v>133273</v>
+        <v>164095</v>
       </c>
       <c r="C111" t="s">
         <v>966</v>
@@ -11391,7 +11391,7 @@
         <v>18074</v>
       </c>
       <c r="B112" t="n">
-        <v>133274</v>
+        <v>164096</v>
       </c>
       <c r="C112" t="s">
         <v>974</v>
@@ -11462,7 +11462,7 @@
         <v>18074</v>
       </c>
       <c r="B113" t="n">
-        <v>133275</v>
+        <v>164097</v>
       </c>
       <c r="C113" t="s">
         <v>981</v>
@@ -11533,7 +11533,7 @@
         <v>18074</v>
       </c>
       <c r="B114" t="n">
-        <v>133276</v>
+        <v>164098</v>
       </c>
       <c r="C114" t="s">
         <v>988</v>
@@ -11675,7 +11675,7 @@
         <v>18074</v>
       </c>
       <c r="B116" t="n">
-        <v>133277</v>
+        <v>164099</v>
       </c>
       <c r="C116" t="s">
         <v>1003</v>
@@ -11742,7 +11742,7 @@
         <v>18074</v>
       </c>
       <c r="B117" t="n">
-        <v>133278</v>
+        <v>164100</v>
       </c>
       <c r="C117" t="s">
         <v>1010</v>
@@ -11813,7 +11813,7 @@
         <v>18074</v>
       </c>
       <c r="B118" t="n">
-        <v>133279</v>
+        <v>164101</v>
       </c>
       <c r="C118" t="s">
         <v>1017</v>
@@ -11953,7 +11953,7 @@
         <v>18074</v>
       </c>
       <c r="B120" t="n">
-        <v>133280</v>
+        <v>164102</v>
       </c>
       <c r="C120" t="s">
         <v>1032</v>
@@ -12024,7 +12024,7 @@
         <v>18074</v>
       </c>
       <c r="B121" t="n">
-        <v>133281</v>
+        <v>164103</v>
       </c>
       <c r="C121" t="s">
         <v>1040</v>
@@ -12081,7 +12081,7 @@
         <v>18074</v>
       </c>
       <c r="B122" t="n">
-        <v>133282</v>
+        <v>164104</v>
       </c>
       <c r="C122" t="s">
         <v>1047</v>
